--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58CB4BF-62D0-42DD-A353-89B55FC57CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8C084-13CF-4365-BB69-D97C08CAC023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="123">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -224,6 +224,186 @@
   </si>
   <si>
     <t>SAEs N (per arm) 'Sample3' is not supported</t>
+  </si>
+  <si>
+    <t>pop7</t>
+  </si>
+  <si>
+    <t>Duplicate column found for B-11, please re-check your template and upload again.</t>
+  </si>
+  <si>
+    <t>In column 'W' of the extraction file, variable label should be 'Add Variables for Treatment Characteristics' when the actual value is 'Invalid Add Variables for Treatment Characteristics'</t>
+  </si>
+  <si>
+    <t>In column 'AC' of the extraction file, variable label should be 'B-5' &amp; 'Mean Age (per arm)' when the actual value is 'B-50' &amp; 'MeanAge(per arm)'</t>
+  </si>
+  <si>
+    <t>Duplicate column found for B-12, please re-check your template and upload again.</t>
+  </si>
+  <si>
+    <t>Additional column found for 'C-325', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>In column 'BJ' of the extraction file, variable label should be 'p-value' when the actual value is 'pvalue'</t>
+  </si>
+  <si>
+    <t>In column 'R' of the extraction file, variable ID should be 'A-18' when the actual value is 'A-180'</t>
+  </si>
+  <si>
+    <t>The extraction file is missing '% of patients experiencing event' and 'QA-2' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>In column 'X' of the extraction file, variable ID should be 'P-4' when the actual value is 'P-428'</t>
+  </si>
+  <si>
+    <t>In column 'Q' of the extraction file, variable label should be 'Prior Therapy Group' when the actual value is 'Prior Therapy Group Invalid'</t>
+  </si>
+  <si>
+    <t>pop8</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Other Clinical Outcomes Custom Variables' and 'T-2' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint Description custom columns' and 'SE-3' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint Info custom columns' and 'QI-5' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint overall results custom columns' and 'SO-3' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>LIVEHTA_2035_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\ImportPublications\LIVEHTA_2035_Data.xlsx</t>
+  </si>
+  <si>
+    <t>In column 'W' of the extraction file, variable ID should be 'P-3' when the actual value is 'P-31'</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Clinical Study Characteristics Variables' and 'C-3' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>Additional column found for 'QIIII', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>In column 'AP' of the extraction file, variable label should be 'Add Endpoint Description custom columns' when the actual value is 'Invalid Col Name'</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint Description custom columns' and 'RE-3' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>Additional column found for 'T-2!@#$%', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>Additional column found for 'RI-58', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint Description custom columns' and 'RE-2' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>Duplicate column found for RC-12, please re-check your template and upload again.</t>
+  </si>
+  <si>
+    <t>In column 'S' of the extraction file, variable label should be 'Add Variables for Study Characteristics' when the actual value is 'Invalid'</t>
+  </si>
+  <si>
+    <t>Duplicate column found for QO-3, please re-check your template and upload again.</t>
+  </si>
+  <si>
+    <t>LIVEHTA_1550_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\ImportPublications\LIVEHTA_1550_Data.xlsx</t>
+  </si>
+  <si>
+    <t>Column RD-7 mapping key 'Result_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column E-6 mapping key 'A_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SO-2 mapping key 'EndResult_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column T-2 mapping key 'E_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QO-3 mapping key '_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SI-4 mapping key 'ExtractionInfo_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column P-4 mapping key 'Ext_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QE-2 mapping key 'ExtractionEndpoint_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RC-12 mapping key '_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column B-12 mapping key 'Ext_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column ST-12 mapping key '_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column C-2 mapping key 'Ext_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SE-3 mapping key 'A_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RE-3 mapping key '_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column A-19 mapping key 'AR_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QA-4 mapping key 'Endpoint_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RI-4 mapping key 'EndpointInfo_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RO-2 mapping key 'Endpoint_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QB-7 mapping key 'Endpoint_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QI-5 mapping key 'Arms_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>pop9</t>
+  </si>
+  <si>
+    <t>LIVEHTA_2072_Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\ImportPublications\LIVEHTA_2072_Data.xlsx</t>
+  </si>
+  <si>
+    <t>In column 'DQ' of the extraction file, variable label should be 'T-1' &amp; 'Add Other Clinical Outcomes Custom Variables' when the actual value is 'E-60' &amp; 'Invalid'</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint Info custom columns' and 'RI-5' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>In column 'DJ' of the extraction file, variable label should be 'Add TTE Endpoint Custom Variables' when the actual value is 'Invaid name'</t>
+  </si>
+  <si>
+    <t>In column 'DR' of the extraction file, variable ID should be 'E-6' when the actual value is 'E-7'</t>
+  </si>
+  <si>
+    <t>In column 'BU' of the extraction file, variable label should be 'Add Endpoint overall results custom columns' when the actual value is 'Add Endpoint overall results custom colIvalidumns'</t>
+  </si>
+  <si>
+    <t>In column 'CV' of the extraction file, variable ID should be 'SI-5' when the actual value is 'SI-4'</t>
   </si>
 </sst>
 </file>
@@ -265,12 +445,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -552,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +745,7 @@
     <col min="3" max="3" width="48.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -616,7 +795,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" t="s">
@@ -627,7 +806,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>14</v>
       </c>
       <c r="F5" t="s">
@@ -638,7 +817,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>9</v>
       </c>
       <c r="F6" t="s">
@@ -649,7 +828,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>9</v>
       </c>
       <c r="F7" t="s">
@@ -660,7 +839,7 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" t="s">
@@ -671,7 +850,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>11</v>
       </c>
       <c r="F9" t="s">
@@ -682,7 +861,7 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>12</v>
       </c>
       <c r="F10" t="s">
@@ -693,7 +872,7 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" t="s">
@@ -704,7 +883,7 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>9</v>
       </c>
       <c r="F12" t="s">
@@ -715,7 +894,7 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>11</v>
       </c>
       <c r="F13" t="s">
@@ -726,7 +905,7 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>9</v>
       </c>
       <c r="F14" t="s">
@@ -737,7 +916,7 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>12</v>
       </c>
       <c r="F15" t="s">
@@ -748,7 +927,7 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" t="s">
@@ -759,7 +938,7 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>9</v>
       </c>
       <c r="F17" t="s">
@@ -770,7 +949,7 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" t="s">
@@ -781,7 +960,7 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" t="s">
@@ -792,7 +971,7 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>11</v>
       </c>
       <c r="F20" t="s">
@@ -803,7 +982,7 @@
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>12</v>
       </c>
       <c r="F21" t="s">
@@ -823,7 +1002,7 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>12</v>
       </c>
       <c r="F23" t="s">
@@ -834,7 +1013,7 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>23</v>
       </c>
       <c r="F24" t="s">
@@ -845,7 +1024,7 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>22</v>
       </c>
       <c r="F25" t="s">
@@ -856,7 +1035,7 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>11</v>
       </c>
       <c r="F26" t="s">
@@ -867,7 +1046,7 @@
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>17</v>
       </c>
       <c r="F27" t="s">
@@ -878,7 +1057,7 @@
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>18</v>
       </c>
       <c r="F28" t="s">
@@ -889,7 +1068,7 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>26</v>
       </c>
       <c r="F29" t="s">
@@ -900,7 +1079,7 @@
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>14</v>
       </c>
       <c r="F30" t="s">
@@ -911,7 +1090,7 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>9</v>
       </c>
       <c r="F31" t="s">
@@ -922,7 +1101,7 @@
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" t="s">
@@ -933,7 +1112,7 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>16</v>
       </c>
       <c r="F33" t="s">
@@ -944,7 +1123,7 @@
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>24</v>
       </c>
       <c r="F34" t="s">
@@ -955,7 +1134,7 @@
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" t="s">
@@ -966,7 +1145,7 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>25</v>
       </c>
       <c r="F36" t="s">
@@ -977,7 +1156,7 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>9</v>
       </c>
       <c r="F37" t="s">
@@ -988,7 +1167,7 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>15</v>
       </c>
       <c r="F38" t="s">
@@ -999,7 +1178,7 @@
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>13</v>
       </c>
       <c r="F39" t="s">
@@ -1010,7 +1189,7 @@
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>20</v>
       </c>
       <c r="F40" t="s">
@@ -1021,7 +1200,7 @@
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>21</v>
       </c>
       <c r="F41" t="s">
@@ -1032,7 +1211,7 @@
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>19</v>
       </c>
       <c r="F42" t="s">
@@ -1052,7 +1231,7 @@
       <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>16</v>
       </c>
       <c r="F44" t="s">
@@ -1063,7 +1242,7 @@
       <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>12</v>
       </c>
       <c r="F45" t="s">
@@ -1074,7 +1253,7 @@
       <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>15</v>
       </c>
       <c r="F46" t="s">
@@ -1085,7 +1264,7 @@
       <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>13</v>
       </c>
       <c r="F47" t="s">
@@ -1096,7 +1275,7 @@
       <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>9</v>
       </c>
       <c r="F48" t="s">
@@ -1107,7 +1286,7 @@
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>21</v>
       </c>
       <c r="F49" t="s">
@@ -1118,7 +1297,7 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>17</v>
       </c>
       <c r="F50" t="s">
@@ -1129,7 +1308,7 @@
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>11</v>
       </c>
       <c r="F51" t="s">
@@ -1140,7 +1319,7 @@
       <c r="A52" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>14</v>
       </c>
       <c r="F52" t="s">
@@ -1151,7 +1330,7 @@
       <c r="A53" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>10</v>
       </c>
       <c r="F53" t="s">
@@ -1162,7 +1341,7 @@
       <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>20</v>
       </c>
       <c r="F54" t="s">
@@ -1173,7 +1352,7 @@
       <c r="A55" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>19</v>
       </c>
       <c r="F55" t="s">
@@ -1184,7 +1363,7 @@
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>18</v>
       </c>
       <c r="F56" t="s">
@@ -1204,7 +1383,7 @@
       <c r="D58" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>14</v>
       </c>
       <c r="F58" t="s">
@@ -1215,7 +1394,7 @@
       <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" t="s">
@@ -1226,7 +1405,7 @@
       <c r="A60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>22</v>
       </c>
       <c r="F60" t="s">
@@ -1237,7 +1416,7 @@
       <c r="A61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>16</v>
       </c>
       <c r="F61" t="s">
@@ -1248,7 +1427,7 @@
       <c r="A62" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>20</v>
       </c>
       <c r="F62" t="s">
@@ -1259,7 +1438,7 @@
       <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>13</v>
       </c>
       <c r="F63" t="s">
@@ -1270,7 +1449,7 @@
       <c r="A64" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>23</v>
       </c>
       <c r="F64" t="s">
@@ -1281,7 +1460,7 @@
       <c r="A65" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>25</v>
       </c>
       <c r="F65" t="s">
@@ -1292,7 +1471,7 @@
       <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>17</v>
       </c>
       <c r="F66" t="s">
@@ -1303,7 +1482,7 @@
       <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>10</v>
       </c>
       <c r="F67" t="s">
@@ -1314,7 +1493,7 @@
       <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>24</v>
       </c>
       <c r="F68" t="s">
@@ -1325,7 +1504,7 @@
       <c r="A69" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>9</v>
       </c>
       <c r="F69" t="s">
@@ -1336,7 +1515,7 @@
       <c r="A70" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>26</v>
       </c>
       <c r="F70" t="s">
@@ -1347,7 +1526,7 @@
       <c r="A71" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>18</v>
       </c>
       <c r="F71" t="s">
@@ -1358,7 +1537,7 @@
       <c r="A72" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>12</v>
       </c>
       <c r="F72" t="s">
@@ -1369,7 +1548,7 @@
       <c r="A73" t="s">
         <v>8</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>19</v>
       </c>
       <c r="F73" t="s">
@@ -1380,7 +1559,7 @@
       <c r="A74" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>15</v>
       </c>
       <c r="F74" t="s">
@@ -1391,7 +1570,7 @@
       <c r="A75" t="s">
         <v>8</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>21</v>
       </c>
       <c r="F75" t="s">
@@ -1411,7 +1590,7 @@
       <c r="D77" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>21</v>
       </c>
       <c r="F77" t="s">
@@ -1422,7 +1601,7 @@
       <c r="A78" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>22</v>
       </c>
       <c r="F78" t="s">
@@ -1433,7 +1612,7 @@
       <c r="A79" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>16</v>
       </c>
       <c r="F79" t="s">
@@ -1444,7 +1623,7 @@
       <c r="A80" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>17</v>
       </c>
       <c r="F80" t="s">
@@ -1455,7 +1634,7 @@
       <c r="A81" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>15</v>
       </c>
       <c r="F81" t="s">
@@ -1466,7 +1645,7 @@
       <c r="A82" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>11</v>
       </c>
       <c r="F82" t="s">
@@ -1477,7 +1656,7 @@
       <c r="A83" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>24</v>
       </c>
       <c r="F83" t="s">
@@ -1488,7 +1667,7 @@
       <c r="A84" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>25</v>
       </c>
       <c r="F84" t="s">
@@ -1499,7 +1678,7 @@
       <c r="A85" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>14</v>
       </c>
       <c r="F85" t="s">
@@ -1510,7 +1689,7 @@
       <c r="A86" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>23</v>
       </c>
       <c r="F86" t="s">
@@ -1521,7 +1700,7 @@
       <c r="A87" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>20</v>
       </c>
       <c r="F87" t="s">
@@ -1532,7 +1711,7 @@
       <c r="A88" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>10</v>
       </c>
       <c r="F88" t="s">
@@ -1543,7 +1722,7 @@
       <c r="A89" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>13</v>
       </c>
       <c r="F89" t="s">
@@ -1554,7 +1733,7 @@
       <c r="A90" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>18</v>
       </c>
       <c r="F90" t="s">
@@ -1565,7 +1744,7 @@
       <c r="A91" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>9</v>
       </c>
       <c r="F91" t="s">
@@ -1576,7 +1755,7 @@
       <c r="A92" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>19</v>
       </c>
       <c r="F92" t="s">
@@ -1587,7 +1766,7 @@
       <c r="A93" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>26</v>
       </c>
       <c r="F93" t="s">
@@ -1598,11 +1777,613 @@
       <c r="A94" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>12</v>
       </c>
       <c r="F94" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="2">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="2">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="2">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="2">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="2">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="2">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="2">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="2">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" s="2">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" s="2">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="2">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>74</v>
+      </c>
+      <c r="E108" s="2">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="2">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>74</v>
+      </c>
+      <c r="E110" s="2">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" s="2">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="2">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>74</v>
+      </c>
+      <c r="E113" s="2">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="2">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>74</v>
+      </c>
+      <c r="E115" s="2">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>74</v>
+      </c>
+      <c r="E116" s="2">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>74</v>
+      </c>
+      <c r="E117" s="2">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>74</v>
+      </c>
+      <c r="E118" s="2">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" s="2">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="2">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>74</v>
+      </c>
+      <c r="E121" s="2">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>74</v>
+      </c>
+      <c r="E122" s="2">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="2">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>74</v>
+      </c>
+      <c r="E124" s="2">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>74</v>
+      </c>
+      <c r="E125" s="2">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126" s="2">
+        <v>5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>74</v>
+      </c>
+      <c r="E127" s="2">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>74</v>
+      </c>
+      <c r="E128" s="2">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E130" s="2">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="2">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="2">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="2">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" s="2">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="2">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="2">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" s="2">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" s="2">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="2">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" s="2">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>114</v>
+      </c>
+      <c r="E141" s="2">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" s="2">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="2">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="2">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>114</v>
+      </c>
+      <c r="E145" s="2">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>114</v>
+      </c>
+      <c r="E146" s="2">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>114</v>
+      </c>
+      <c r="E147" s="2">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" s="2">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" s="2">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D8C084-13CF-4365-BB69-D97C08CAC023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55134E8-428F-4741-834A-9E77EC403A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="122">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -229,9 +229,6 @@
     <t>pop7</t>
   </si>
   <si>
-    <t>Duplicate column found for B-11, please re-check your template and upload again.</t>
-  </si>
-  <si>
     <t>In column 'W' of the extraction file, variable label should be 'Add Variables for Treatment Characteristics' when the actual value is 'Invalid Add Variables for Treatment Characteristics'</t>
   </si>
   <si>
@@ -265,15 +262,6 @@
     <t>The extraction file is missing 'Add Other Clinical Outcomes Custom Variables' and 'T-2' as compared to the modified extraction template</t>
   </si>
   <si>
-    <t>The extraction file is missing 'Add Endpoint Description custom columns' and 'SE-3' as compared to the modified extraction template</t>
-  </si>
-  <si>
-    <t>The extraction file is missing 'Add Endpoint Info custom columns' and 'QI-5' as compared to the modified extraction template</t>
-  </si>
-  <si>
-    <t>The extraction file is missing 'Add Endpoint overall results custom columns' and 'SO-3' as compared to the modified extraction template</t>
-  </si>
-  <si>
     <t>LIVEHTA_2035_Data.xlsx</t>
   </si>
   <si>
@@ -283,36 +271,12 @@
     <t>In column 'W' of the extraction file, variable ID should be 'P-3' when the actual value is 'P-31'</t>
   </si>
   <si>
-    <t>The extraction file is missing 'Add Clinical Study Characteristics Variables' and 'C-3' as compared to the modified extraction template</t>
-  </si>
-  <si>
-    <t>Additional column found for 'QIIII', please re-check your template and upload again</t>
-  </si>
-  <si>
     <t>In column 'AP' of the extraction file, variable label should be 'Add Endpoint Description custom columns' when the actual value is 'Invalid Col Name'</t>
   </si>
   <si>
-    <t>The extraction file is missing 'Add Endpoint Description custom columns' and 'RE-3' as compared to the modified extraction template</t>
-  </si>
-  <si>
-    <t>Additional column found for 'T-2!@#$%', please re-check your template and upload again</t>
-  </si>
-  <si>
-    <t>Additional column found for 'RI-58', please re-check your template and upload again</t>
-  </si>
-  <si>
-    <t>The extraction file is missing 'Add Endpoint Description custom columns' and 'RE-2' as compared to the modified extraction template</t>
-  </si>
-  <si>
-    <t>Duplicate column found for RC-12, please re-check your template and upload again.</t>
-  </si>
-  <si>
     <t>In column 'S' of the extraction file, variable label should be 'Add Variables for Study Characteristics' when the actual value is 'Invalid'</t>
   </si>
   <si>
-    <t>Duplicate column found for QO-3, please re-check your template and upload again.</t>
-  </si>
-  <si>
     <t>LIVEHTA_1550_Data.xlsx</t>
   </si>
   <si>
@@ -388,22 +352,55 @@
     <t>\Testdata\Non_Oncology\Templates\ImportPublications\LIVEHTA_2072_Data.xlsx</t>
   </si>
   <si>
-    <t>In column 'DQ' of the extraction file, variable label should be 'T-1' &amp; 'Add Other Clinical Outcomes Custom Variables' when the actual value is 'E-60' &amp; 'Invalid'</t>
-  </si>
-  <si>
-    <t>The extraction file is missing 'Add Endpoint Info custom columns' and 'RI-5' as compared to the modified extraction template</t>
-  </si>
-  <si>
-    <t>In column 'DJ' of the extraction file, variable label should be 'Add TTE Endpoint Custom Variables' when the actual value is 'Invaid name'</t>
-  </si>
-  <si>
-    <t>In column 'DR' of the extraction file, variable ID should be 'E-6' when the actual value is 'E-7'</t>
-  </si>
-  <si>
-    <t>In column 'BU' of the extraction file, variable label should be 'Add Endpoint overall results custom columns' when the actual value is 'Add Endpoint overall results custom colIvalidumns'</t>
-  </si>
-  <si>
-    <t>In column 'CV' of the extraction file, variable ID should be 'SI-5' when the actual value is 'SI-4'</t>
+    <t>In column 'DP' of the extraction file, variable label should be 'T-2' &amp; 'Add Other Clinical Outcomes Custom Variables' when the actual value is 'E-1' &amp; 'Safety N'</t>
+  </si>
+  <si>
+    <t>In column 'BA' of the extraction file, variable label should be 'QA-2' &amp; '% of patients experiencing event' when the actual value is 'QA-1' &amp; 'N of patients experiencing event'</t>
+  </si>
+  <si>
+    <t>In column 'DM' of the extraction file, variable label should be 'ST-12' &amp; 'Add TTE Endpoint Custom Variables' when the actual value is 'T-2!@#$%' &amp; 'Invaid name'</t>
+  </si>
+  <si>
+    <t>In column 'BV' of the extraction file, variable label should be 'Add Endpoint overall results custom columns' when the actual value is 'Add Endpoint overall results custom colIvalidumns'</t>
+  </si>
+  <si>
+    <t>In column 'AU' of the extraction file, variable ID should be 'QI-5' when the actual value is 'QIIII'</t>
+  </si>
+  <si>
+    <t>In column 'BS' of the extraction file, variable ID should be 'RI-5' when the actual value is 'RI-58'</t>
+  </si>
+  <si>
+    <t>In column 'DO' of the extraction file, variable ID should be 'T-2' when the actual value is 'T-22'</t>
+  </si>
+  <si>
+    <t>In column 'DV' of the extraction file, variable ID should be 'E-7' when the actual value is 'E-70'</t>
+  </si>
+  <si>
+    <t>In column 'CC' of the extraction file, variable ID should be 'RC-7' when the actual value is 'R-C-7'</t>
+  </si>
+  <si>
+    <t>In column 'BP' of the extraction file, variable label should be 'Timepoint' when the actual value is 'Timepointssss'</t>
+  </si>
+  <si>
+    <t>In column 'AQ' of the extraction file, variable ID should be 'QI-1' when the actual value is 'QI-14'</t>
+  </si>
+  <si>
+    <t>In column 'DJ' of the extraction file, variable ID should be 'ST-9' when the actual value is '9-ST'</t>
+  </si>
+  <si>
+    <t>In column 'BA' of the extraction file, variable label should be 'Number of events' when the actual value is '156236'</t>
+  </si>
+  <si>
+    <t>In column 'CV' of the extraction file, variable label should be 'Timepoint unit' when the actual value is 'Invalid unit'</t>
+  </si>
+  <si>
+    <t>In column 'A' of the extraction file, variable label should be 'SLR Type' when the actual value is 'InvalidSLR Type'</t>
+  </si>
+  <si>
+    <t>In column 'DP' of the extraction file, variable label should be 'E-1' &amp; 'Safety N' when the actual value is 'E-111' &amp; 'TestInvalid'</t>
+  </si>
+  <si>
+    <t>In column 'Z' of the extraction file, variable label should be 'B-2' &amp; 'Study N (overall)' when the actual value is 'B-20' &amp; 'Sachin'</t>
   </si>
 </sst>
 </file>
@@ -731,11 +728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,19 +1789,19 @@
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E96" s="2">
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -1812,10 +1809,10 @@
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>63</v>
       </c>
@@ -1823,10 +1820,10 @@
         <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>63</v>
       </c>
@@ -1834,10 +1831,10 @@
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -1845,10 +1842,10 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -1856,10 +1853,13 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -1867,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>63</v>
       </c>
@@ -1878,10 +1878,10 @@
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -1889,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>63</v>
       </c>
@@ -1900,490 +1900,449 @@
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="G105" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E107" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E108" s="2">
         <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E109" s="2">
         <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E110" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E111" s="2">
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E112" s="2">
         <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E113" s="2">
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E114" s="2">
         <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E115" s="2">
         <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E116" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E117" s="2">
         <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E118" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E119" s="2">
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E120" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F120" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E121" s="2">
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E122" s="2">
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E123" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E124" s="2">
         <v>4</v>
       </c>
       <c r="F124" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>74</v>
-      </c>
-      <c r="E125" s="2">
-        <v>4</v>
-      </c>
-      <c r="F125" t="s">
-        <v>91</v>
-      </c>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" t="s">
+        <v>103</v>
+      </c>
+      <c r="D126" t="s">
+        <v>104</v>
       </c>
       <c r="E126" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E127" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E128" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F128" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E129" s="2"/>
+      <c r="A129" t="s">
+        <v>102</v>
+      </c>
+      <c r="E129" s="2">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>114</v>
-      </c>
-      <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" t="s">
-        <v>115</v>
-      </c>
-      <c r="D130" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E130" s="2">
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E131" s="2">
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E132" s="2">
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E133" s="2">
         <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E134" s="2">
         <v>6</v>
       </c>
       <c r="F134" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E135" s="2">
         <v>6</v>
       </c>
       <c r="F135" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E136" s="2">
         <v>6</v>
       </c>
       <c r="F136" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E137" s="2">
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E138" s="2">
         <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E139" s="2">
         <v>6</v>
       </c>
       <c r="F139" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E140" s="2">
         <v>6</v>
       </c>
       <c r="F140" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E141" s="2">
         <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E142" s="2">
         <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E143" s="2">
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E144" s="2">
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E145" s="2">
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>114</v>
-      </c>
-      <c r="E146" s="2">
-        <v>6</v>
-      </c>
-      <c r="F146" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>114</v>
-      </c>
-      <c r="E147" s="2">
-        <v>6</v>
-      </c>
-      <c r="F147" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>114</v>
-      </c>
-      <c r="E148" s="2">
-        <v>6</v>
-      </c>
-      <c r="F148" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>114</v>
-      </c>
-      <c r="E149" s="2">
-        <v>6</v>
-      </c>
-      <c r="F149" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55134E8-428F-4741-834A-9E77EC403A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420017A-C666-4ECE-A0FA-48A915C1027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -350,12 +350,6 @@
   </si>
   <si>
     <t>\Testdata\Non_Oncology\Templates\ImportPublications\LIVEHTA_2072_Data.xlsx</t>
-  </si>
-  <si>
-    <t>In column 'DP' of the extraction file, variable label should be 'T-2' &amp; 'Add Other Clinical Outcomes Custom Variables' when the actual value is 'E-1' &amp; 'Safety N'</t>
-  </si>
-  <si>
-    <t>In column 'BA' of the extraction file, variable label should be 'QA-2' &amp; '% of patients experiencing event' when the actual value is 'QA-1' &amp; 'N of patients experiencing event'</t>
   </si>
   <si>
     <t>In column 'DM' of the extraction file, variable label should be 'ST-12' &amp; 'Add TTE Endpoint Custom Variables' when the actual value is 'T-2!@#$%' &amp; 'Invaid name'</t>
@@ -728,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,7 +1795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -1812,7 +1806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>63</v>
       </c>
@@ -1823,7 +1817,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>63</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -1845,7 +1839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>63</v>
       </c>
@@ -1853,13 +1847,10 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
-      </c>
-      <c r="G101" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -1870,7 +1861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>63</v>
       </c>
@@ -1881,7 +1872,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -1892,7 +1883,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>63</v>
       </c>
@@ -1900,13 +1891,10 @@
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>73</v>
       </c>
@@ -1923,10 +1911,10 @@
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>73</v>
       </c>
@@ -1934,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>73</v>
       </c>
@@ -1945,10 +1933,10 @@
         <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>73</v>
       </c>
@@ -1956,10 +1944,10 @@
         <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>73</v>
       </c>
@@ -1967,10 +1955,10 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>73</v>
       </c>
@@ -1978,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2011,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2022,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2033,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2055,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2088,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2110,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="F124" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420017A-C666-4ECE-A0FA-48A915C1027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A281094C-FE25-4DF1-B45F-7FFDDA4921D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="249">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -395,6 +395,393 @@
   </si>
   <si>
     <t>In column 'Z' of the extraction file, variable label should be 'B-2' &amp; 'Study N (overall)' when the actual value is 'B-20' &amp; 'Sachin'</t>
+  </si>
+  <si>
+    <t>pop10</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\ImportPublications\Extraction sheet - Invalid Row 4 and 5.xlsx</t>
+  </si>
+  <si>
+    <t>Extraction sheet - Invalid Row 4 and 5.xlsx</t>
+  </si>
+  <si>
+    <t>Additional column found for 'QIIII', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>In column 'CX' of the extraction file, variable label should be 'Timepoint unit' when the actual value is 'Invalid unit'</t>
+  </si>
+  <si>
+    <t>Additional column found for 'T-2!@#$%', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint Info custom columns' and 'QI-5' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Endpoint Unit' and 'QI-1' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Safety Custom Variables' and 'E-7' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>Additional column found for 'T-22', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Comparison CI High' and 'ST-9' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>Additional column found for 'E-111', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>Additional column found for '9-ST', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>In column 'BK' of the extraction file, variable label should be 'p-value' when the actual value is 'pvalue'</t>
+  </si>
+  <si>
+    <t>Additional column found for 'QI-14', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>In column 'DO' of the extraction file, variable ID should be 'T-2' when the actual value is 'T-1'</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add TTE Endpoint Custom Variables' and 'ST-12' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>In column 'BX' of the extraction file, variable label should be 'Add Endpoint overall results custom columns' when the actual value is 'Add Endpoint overall results custom colIvalidumns'</t>
+  </si>
+  <si>
+    <t>Duplicate column found for QA-3, please re-check your template and upload again.</t>
+  </si>
+  <si>
+    <t>In column 'BR' of the extraction file, variable label should be 'Timepoint' when the actual value is 'Timepointssss'</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Add Endpoint overall results custom columns' and 'SO-3' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>In column 'CE' of the extraction file, variable ID should be 'RC-7' when the actual value is 'R-C-7'</t>
+  </si>
+  <si>
+    <t>In column 'W' of the extraction file, variable label should be 'P-3' &amp; 'Add Variables for Treatment Characteristics' when the actual value is 'P-31' &amp; 'Invalid Add Variables for Treatment Characteristics'</t>
+  </si>
+  <si>
+    <t>In column 'AR' of the extraction file, variable label should be 'Add Endpoint Description custom columns' when the actual value is 'Invalid Col Name'</t>
+  </si>
+  <si>
+    <t>In column 'BU' of the extraction file, variable ID should be 'RI-5' when the actual value is 'RI-58'</t>
+  </si>
+  <si>
+    <t>Additional column found for 'E-70', please re-check your template and upload again</t>
+  </si>
+  <si>
+    <t>In column 'BB' of the extraction file, variable label should be 'Number of events' when the actual value is '% of patients experiencing event'</t>
+  </si>
+  <si>
+    <t>The extraction file is missing 'Safety N' and 'E-1' as compared to the modified extraction template</t>
+  </si>
+  <si>
+    <t>pop11</t>
+  </si>
+  <si>
+    <t>pop12</t>
+  </si>
+  <si>
+    <t>Extraction sheet - Invalid Row 6.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\ImportPublications\Extraction sheet - Invalid Row 6.xlsx</t>
+  </si>
+  <si>
+    <t>Column QA-4 mapping key 'CategorialResult_PatientsWithEventPercent' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RD-7 mapping key 'EndpointResult_ComparisonCiHigh' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RC-12 mapping key 'ContinuousResult_CiHigh' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column C-3 mapping key 'Ext_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RC-11 mapping key 'ContinuousResult_CiLow' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column ST-11 mapping key 'EndpointResult_pvalue' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column E-6 mapping key 'Arm_SAEs' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SO-2 mapping key 'Arm_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SE-2 mapping key 'Extraction_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RO-3 mapping key 'EndpointResult_PatientsEvaluated' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QB-8 mapping key 'EndpointResult_pvalue' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RI-5 mapping key 'ExtractionEndpointInfo_TimepointUnit' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QI-5 mapping key 'ExtractionEndpointInfo_TimepointUnit' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QB-7 mapping key 'EndpointResult_ComparisonCiHigh' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RE-2 mapping key 'Extraction_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SI-4 mapping key 'ExtractionEndpointInfo_Timepoint' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QE-3 mapping key 'ExtractionEndpointInfo_Description' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SO-3 mapping key 'EndpointResult_PatientsEvaluated' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RO-2 mapping key 'Arm_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RD-8 mapping key 'EndpointResult_pvalue' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column C-2 mapping key 'Extraction_ExtractionDataCutOff' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column E-7 mapping key 'A_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QA-5 mapping key 'CategorialResult_NumberOfEvents' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column T-1 mapping key '_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QO-3 mapping key 'EndpointResult_PatientsEvaluated' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SI-5 mapping key 'ExtractionEndpointInfo_TimepointUnit' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QI-4 mapping key 'ExtractionEndpointInfo_Timepoint' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RI-4 mapping key 'ExtractionEndpointInfo_Timepoint' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column SE-3 mapping key 'ExtractionEndpointInfo_Description' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column QO-2 mapping key 'Arms_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Column RE-3 mapping key 'ExtractionEndpointInfo_Description' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>Extraction sheet - Invalid Data.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\ImportPublications\Extraction sheet - Invalid Data.xlsx</t>
+  </si>
+  <si>
+    <t>N of Patients evaluated 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>Comparison CI Low '95%' is not supported</t>
+  </si>
+  <si>
+    <t>Number of events 'NA' is not supported</t>
+  </si>
+  <si>
+    <t>Timepoint 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>p-value '1.9' is not supported</t>
+  </si>
+  <si>
+    <t>SD 'Change from BL' is not supported</t>
+  </si>
+  <si>
+    <t>Comparison Value 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>p-value '5.1' is not supported</t>
+  </si>
+  <si>
+    <t>Safety Outcome Type (Any/TE/TR) '130' is not supported</t>
+  </si>
+  <si>
+    <t>Safety N '46%' is not supported</t>
+  </si>
+  <si>
+    <t>Confidence % 'RR' is not supported</t>
+  </si>
+  <si>
+    <t>Add TTE Endpoint Custom Variables '' is not supported.</t>
+  </si>
+  <si>
+    <t>Value at baseline (BL) 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>% of patients experiencing event 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>CI Low '95%' is not supported</t>
+  </si>
+  <si>
+    <t>AEs lead to D/C N (per arm) 'String' is not supported</t>
+  </si>
+  <si>
+    <t>Value at timepoint 'Median' is not supported</t>
+  </si>
+  <si>
+    <t>T-2 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Total subjects experiencing AEs N (per arm) 'Any' is not supported</t>
+  </si>
+  <si>
+    <t>Average Type (Median, Mean) 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>Median time to event 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>Timepoint '8 weeks' is not supported</t>
+  </si>
+  <si>
+    <t>Uncertainty Reported For '6' is not supported</t>
+  </si>
+  <si>
+    <t>Comparison Value '11.50%' is not supported</t>
+  </si>
+  <si>
+    <t>Comparison Value 'HR' is not supported</t>
+  </si>
+  <si>
+    <t>Confidence % 'OR' is not supported</t>
+  </si>
+  <si>
+    <t>N of patients experiencing event 'Real data will be entered here' is not supported</t>
+  </si>
+  <si>
+    <t>Safety Outcome Type (Any/TE/TR) '225' is not supported</t>
+  </si>
+  <si>
+    <t>QB-8 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>QE-1 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Data Cutoff '36' is not supported.</t>
+  </si>
+  <si>
+    <t>Comparison CI High '95%' is not supported</t>
+  </si>
+  <si>
+    <t>SO-3 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Confidence % 'Test@123' is not supported</t>
+  </si>
+  <si>
+    <t>Safety Outcome Type (Any/TE/TR) '76' is not supported</t>
+  </si>
+  <si>
+    <t>Add Continuous Endpoint - Between Arm Custom Variables 'NA' is not supported.</t>
+  </si>
+  <si>
+    <t>QO-3 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Timepoint '16 weeks' is not supported</t>
+  </si>
+  <si>
+    <t>RD-8 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>RO-3 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Confidence % '#$@#' is not supported</t>
+  </si>
+  <si>
+    <t>QA-5 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Data Cutoff '30' is not supported.</t>
+  </si>
+  <si>
+    <t>Comparison Value '15.50%' is not supported</t>
+  </si>
+  <si>
+    <t>E-7 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>QI-2 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Comparison CI High '90%' is not supported</t>
+  </si>
+  <si>
+    <t>Data Cutoff '40' is not supported.</t>
+  </si>
+  <si>
+    <t>Timepoint '10 weeks' is not supported</t>
+  </si>
+  <si>
+    <t>Uncertainty Reported For '8' is not supported</t>
+  </si>
+  <si>
+    <t>Timepoint '12 weeks' is not supported</t>
+  </si>
+  <si>
+    <t>Add Categorical Endpoint - Within Arm Custom Variables '' is not supported.</t>
+  </si>
+  <si>
+    <t>SAEs N (per arm) '' is not supported</t>
+  </si>
+  <si>
+    <t>Safety Outcome Type (Any/TE/TR) '149' is not supported</t>
+  </si>
+  <si>
+    <t>Uncertainty Reported For '5' is not supported</t>
+  </si>
+  <si>
+    <t>Safety N '33%' is not supported</t>
+  </si>
+  <si>
+    <t>E-2 is configured to be an Extraction-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>SE 'NA' is not supported</t>
+  </si>
+  <si>
+    <t>Comparison CI Low 'NA' is not supported</t>
+  </si>
+  <si>
+    <t>p-value '4.7' is not supported</t>
+  </si>
+  <si>
+    <t>Comparison CI Low 'Automation' is not supported</t>
+  </si>
+  <si>
+    <t>Uncertainty Reported For 'Test' is not supported</t>
+  </si>
+  <si>
+    <t>QE-2 is configured to be an ExtractionEndpointInfo-related column, therefore, all rows within this column belonging to the same extraction should contain the same data. Please verify and correct accordingly.</t>
+  </si>
+  <si>
+    <t>Uncertainty Reported For '4' is not supported</t>
   </si>
 </sst>
 </file>
@@ -722,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A218" sqref="A218:A991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2333,6 +2720,9312 @@
         <v>101</v>
       </c>
     </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" t="s">
+        <v>122</v>
+      </c>
+      <c r="D147" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" s="2">
+        <v>4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" s="2">
+        <v>5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>120</v>
+      </c>
+      <c r="E149" s="2">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" s="2">
+        <v>5</v>
+      </c>
+      <c r="F150" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" s="2">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152" s="2">
+        <v>4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153" s="2">
+        <v>4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" s="2">
+        <v>4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>120</v>
+      </c>
+      <c r="E155" s="2">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>120</v>
+      </c>
+      <c r="E156" s="2">
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" s="2">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>120</v>
+      </c>
+      <c r="E158" s="2">
+        <v>4</v>
+      </c>
+      <c r="F158" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>120</v>
+      </c>
+      <c r="E159" s="2">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>120</v>
+      </c>
+      <c r="E160" s="2">
+        <v>4</v>
+      </c>
+      <c r="F160" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>120</v>
+      </c>
+      <c r="E161" s="2">
+        <v>4</v>
+      </c>
+      <c r="F161" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>120</v>
+      </c>
+      <c r="E162" s="2">
+        <v>4</v>
+      </c>
+      <c r="F162" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>120</v>
+      </c>
+      <c r="E163" s="2">
+        <v>4</v>
+      </c>
+      <c r="F163" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>120</v>
+      </c>
+      <c r="E164" s="2">
+        <v>5</v>
+      </c>
+      <c r="F164" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>120</v>
+      </c>
+      <c r="E165" s="2">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>120</v>
+      </c>
+      <c r="E166" s="2">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>120</v>
+      </c>
+      <c r="E167" s="2">
+        <v>4</v>
+      </c>
+      <c r="F167" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>120</v>
+      </c>
+      <c r="E168" s="2">
+        <v>5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>120</v>
+      </c>
+      <c r="E169" s="2">
+        <v>4</v>
+      </c>
+      <c r="F169" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>120</v>
+      </c>
+      <c r="E170" s="2">
+        <v>5</v>
+      </c>
+      <c r="F170" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>120</v>
+      </c>
+      <c r="E171" s="2">
+        <v>4</v>
+      </c>
+      <c r="F171" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>120</v>
+      </c>
+      <c r="E172" s="2">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>120</v>
+      </c>
+      <c r="E173" s="2">
+        <v>4</v>
+      </c>
+      <c r="F173" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>120</v>
+      </c>
+      <c r="E174" s="2">
+        <v>4</v>
+      </c>
+      <c r="F174" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>120</v>
+      </c>
+      <c r="E175" s="2">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>120</v>
+      </c>
+      <c r="E176" s="2">
+        <v>5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>120</v>
+      </c>
+      <c r="E177" s="2">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>120</v>
+      </c>
+      <c r="E178" s="2">
+        <v>4</v>
+      </c>
+      <c r="F178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>120</v>
+      </c>
+      <c r="E179" s="2">
+        <v>5</v>
+      </c>
+      <c r="F179" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>120</v>
+      </c>
+      <c r="E180" s="2">
+        <v>4</v>
+      </c>
+      <c r="F180" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>120</v>
+      </c>
+      <c r="E181" s="2">
+        <v>5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>148</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>150</v>
+      </c>
+      <c r="D183" t="s">
+        <v>151</v>
+      </c>
+      <c r="E183" s="2">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" s="2">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>148</v>
+      </c>
+      <c r="E185" s="2">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>148</v>
+      </c>
+      <c r="E186" s="2">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>148</v>
+      </c>
+      <c r="E187" s="2">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>148</v>
+      </c>
+      <c r="E188" s="2">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>148</v>
+      </c>
+      <c r="E189" s="2">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>148</v>
+      </c>
+      <c r="E190" s="2">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>148</v>
+      </c>
+      <c r="E191" s="2">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>148</v>
+      </c>
+      <c r="E192" s="2">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>148</v>
+      </c>
+      <c r="E193" s="2">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>148</v>
+      </c>
+      <c r="E194" s="2">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>148</v>
+      </c>
+      <c r="E195" s="2">
+        <v>6</v>
+      </c>
+      <c r="F195" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>148</v>
+      </c>
+      <c r="E196" s="2">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>148</v>
+      </c>
+      <c r="E197" s="2">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>148</v>
+      </c>
+      <c r="E198" s="2">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>148</v>
+      </c>
+      <c r="E199" s="2">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>148</v>
+      </c>
+      <c r="E200" s="2">
+        <v>6</v>
+      </c>
+      <c r="F200" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>148</v>
+      </c>
+      <c r="E201" s="2">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>148</v>
+      </c>
+      <c r="E202" s="2">
+        <v>6</v>
+      </c>
+      <c r="F202" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>148</v>
+      </c>
+      <c r="E203" s="2">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>148</v>
+      </c>
+      <c r="E204" s="2">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>148</v>
+      </c>
+      <c r="E205" s="2">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>148</v>
+      </c>
+      <c r="E206" s="2">
+        <v>6</v>
+      </c>
+      <c r="F206" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>148</v>
+      </c>
+      <c r="E207" s="2">
+        <v>6</v>
+      </c>
+      <c r="F207" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>148</v>
+      </c>
+      <c r="E208" s="2">
+        <v>6</v>
+      </c>
+      <c r="F208" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>148</v>
+      </c>
+      <c r="E209" s="2">
+        <v>6</v>
+      </c>
+      <c r="F209" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>148</v>
+      </c>
+      <c r="E210" s="2">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>148</v>
+      </c>
+      <c r="E211" s="2">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>148</v>
+      </c>
+      <c r="E212" s="2">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>148</v>
+      </c>
+      <c r="E213" s="2">
+        <v>6</v>
+      </c>
+      <c r="F213" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>148</v>
+      </c>
+      <c r="E214" s="2">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>148</v>
+      </c>
+      <c r="E215" s="2">
+        <v>6</v>
+      </c>
+      <c r="F215" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>148</v>
+      </c>
+      <c r="E216" s="2">
+        <v>6</v>
+      </c>
+      <c r="F216" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>149</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>183</v>
+      </c>
+      <c r="D218" t="s">
+        <v>184</v>
+      </c>
+      <c r="E218" s="2">
+        <v>25</v>
+      </c>
+      <c r="F218" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>149</v>
+      </c>
+      <c r="E219" s="2">
+        <v>22</v>
+      </c>
+      <c r="F219" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>149</v>
+      </c>
+      <c r="E220" s="2">
+        <v>12</v>
+      </c>
+      <c r="F220" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>149</v>
+      </c>
+      <c r="E221" s="2">
+        <v>11</v>
+      </c>
+      <c r="F221" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>149</v>
+      </c>
+      <c r="E222" s="2">
+        <v>29</v>
+      </c>
+      <c r="F222" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>149</v>
+      </c>
+      <c r="E223" s="2">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>149</v>
+      </c>
+      <c r="E224" s="2">
+        <v>27</v>
+      </c>
+      <c r="F224" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>149</v>
+      </c>
+      <c r="E225" s="2">
+        <v>30</v>
+      </c>
+      <c r="F225" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>149</v>
+      </c>
+      <c r="E226" s="2">
+        <v>21</v>
+      </c>
+      <c r="F226" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>149</v>
+      </c>
+      <c r="E227" s="2">
+        <v>27</v>
+      </c>
+      <c r="F227" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>149</v>
+      </c>
+      <c r="E228" s="2">
+        <v>11</v>
+      </c>
+      <c r="F228" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>149</v>
+      </c>
+      <c r="E229" s="2">
+        <v>22</v>
+      </c>
+      <c r="F229" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>149</v>
+      </c>
+      <c r="E230" s="2">
+        <v>24</v>
+      </c>
+      <c r="F230" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>149</v>
+      </c>
+      <c r="E231" s="2">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>149</v>
+      </c>
+      <c r="E232" s="2">
+        <v>22</v>
+      </c>
+      <c r="F232" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>149</v>
+      </c>
+      <c r="E233" s="2">
+        <v>17</v>
+      </c>
+      <c r="F233" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>149</v>
+      </c>
+      <c r="E234" s="2">
+        <v>18</v>
+      </c>
+      <c r="F234" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>149</v>
+      </c>
+      <c r="E235" s="2">
+        <v>16</v>
+      </c>
+      <c r="F235" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>149</v>
+      </c>
+      <c r="E236" s="2">
+        <v>12</v>
+      </c>
+      <c r="F236" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>149</v>
+      </c>
+      <c r="E237" s="2">
+        <v>27</v>
+      </c>
+      <c r="F237" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>149</v>
+      </c>
+      <c r="E238" s="2">
+        <v>22</v>
+      </c>
+      <c r="F238" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>149</v>
+      </c>
+      <c r="E239" s="2">
+        <v>16</v>
+      </c>
+      <c r="F239" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>149</v>
+      </c>
+      <c r="E240" s="2">
+        <v>20</v>
+      </c>
+      <c r="F240" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>149</v>
+      </c>
+      <c r="E241" s="2">
+        <v>22</v>
+      </c>
+      <c r="F241" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>149</v>
+      </c>
+      <c r="E242" s="2">
+        <v>30</v>
+      </c>
+      <c r="F242" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>149</v>
+      </c>
+      <c r="E243" s="2">
+        <v>10</v>
+      </c>
+      <c r="F243" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>149</v>
+      </c>
+      <c r="E244" s="2">
+        <v>24</v>
+      </c>
+      <c r="F244" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>149</v>
+      </c>
+      <c r="E245" s="2">
+        <v>29</v>
+      </c>
+      <c r="F245" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>149</v>
+      </c>
+      <c r="E246" s="2">
+        <v>9</v>
+      </c>
+      <c r="F246" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>149</v>
+      </c>
+      <c r="E247" s="2">
+        <v>30</v>
+      </c>
+      <c r="F247" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>149</v>
+      </c>
+      <c r="E248" s="2">
+        <v>24</v>
+      </c>
+      <c r="F248" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>149</v>
+      </c>
+      <c r="E249" s="2">
+        <v>28</v>
+      </c>
+      <c r="F249" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>149</v>
+      </c>
+      <c r="E250" s="2">
+        <v>23</v>
+      </c>
+      <c r="F250" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>149</v>
+      </c>
+      <c r="E251" s="2">
+        <v>31</v>
+      </c>
+      <c r="F251" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>149</v>
+      </c>
+      <c r="E252" s="2">
+        <v>28</v>
+      </c>
+      <c r="F252" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>149</v>
+      </c>
+      <c r="E253" s="2">
+        <v>32</v>
+      </c>
+      <c r="F253" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>149</v>
+      </c>
+      <c r="E254" s="2">
+        <v>16</v>
+      </c>
+      <c r="F254" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>149</v>
+      </c>
+      <c r="E255" s="2">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>149</v>
+      </c>
+      <c r="E256" s="2">
+        <v>9</v>
+      </c>
+      <c r="F256" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>149</v>
+      </c>
+      <c r="E257" s="2">
+        <v>32</v>
+      </c>
+      <c r="F257" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>149</v>
+      </c>
+      <c r="E258" s="2">
+        <v>23</v>
+      </c>
+      <c r="F258" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>149</v>
+      </c>
+      <c r="E259" s="2">
+        <v>22</v>
+      </c>
+      <c r="F259" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>149</v>
+      </c>
+      <c r="E260" s="2">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>149</v>
+      </c>
+      <c r="E261" s="2">
+        <v>18</v>
+      </c>
+      <c r="F261" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>149</v>
+      </c>
+      <c r="E262" s="2">
+        <v>15</v>
+      </c>
+      <c r="F262" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>149</v>
+      </c>
+      <c r="E263" s="2">
+        <v>10</v>
+      </c>
+      <c r="F263" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>149</v>
+      </c>
+      <c r="E264" s="2">
+        <v>26</v>
+      </c>
+      <c r="F264" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>149</v>
+      </c>
+      <c r="E265" s="2">
+        <v>21</v>
+      </c>
+      <c r="F265" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>149</v>
+      </c>
+      <c r="E266" s="2">
+        <v>11</v>
+      </c>
+      <c r="F266" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>149</v>
+      </c>
+      <c r="E267" s="2">
+        <v>9</v>
+      </c>
+      <c r="F267" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>149</v>
+      </c>
+      <c r="E268" s="2">
+        <v>19</v>
+      </c>
+      <c r="F268" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>149</v>
+      </c>
+      <c r="E269" s="2">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>149</v>
+      </c>
+      <c r="E270" s="2">
+        <v>26</v>
+      </c>
+      <c r="F270" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>149</v>
+      </c>
+      <c r="E271" s="2">
+        <v>16</v>
+      </c>
+      <c r="F271" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>149</v>
+      </c>
+      <c r="E272" s="2">
+        <v>15</v>
+      </c>
+      <c r="F272" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>149</v>
+      </c>
+      <c r="E273" s="2">
+        <v>28</v>
+      </c>
+      <c r="F273" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>149</v>
+      </c>
+      <c r="E274" s="2">
+        <v>29</v>
+      </c>
+      <c r="F274" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>149</v>
+      </c>
+      <c r="E275" s="2">
+        <v>9</v>
+      </c>
+      <c r="F275" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>149</v>
+      </c>
+      <c r="E276" s="2">
+        <v>30</v>
+      </c>
+      <c r="F276" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>149</v>
+      </c>
+      <c r="E277" s="2">
+        <v>23</v>
+      </c>
+      <c r="F277" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>149</v>
+      </c>
+      <c r="E278" s="2">
+        <v>14</v>
+      </c>
+      <c r="F278" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>149</v>
+      </c>
+      <c r="E279" s="2">
+        <v>19</v>
+      </c>
+      <c r="F279" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>149</v>
+      </c>
+      <c r="E280" s="2">
+        <v>24</v>
+      </c>
+      <c r="F280" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>149</v>
+      </c>
+      <c r="E281" s="2">
+        <v>12</v>
+      </c>
+      <c r="F281" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>149</v>
+      </c>
+      <c r="E282" s="2">
+        <v>10</v>
+      </c>
+      <c r="F282" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>149</v>
+      </c>
+      <c r="E283" s="2">
+        <v>25</v>
+      </c>
+      <c r="F283" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>149</v>
+      </c>
+      <c r="E284" s="2">
+        <v>9</v>
+      </c>
+      <c r="F284" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>149</v>
+      </c>
+      <c r="E285" s="2">
+        <v>11</v>
+      </c>
+      <c r="F285" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>149</v>
+      </c>
+      <c r="E286" s="2">
+        <v>29</v>
+      </c>
+      <c r="F286" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>149</v>
+      </c>
+      <c r="E287" s="2">
+        <v>22</v>
+      </c>
+      <c r="F287" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>149</v>
+      </c>
+      <c r="E288" s="2">
+        <v>11</v>
+      </c>
+      <c r="F288" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>149</v>
+      </c>
+      <c r="E289" s="2">
+        <v>30</v>
+      </c>
+      <c r="F289" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>149</v>
+      </c>
+      <c r="E290" s="2">
+        <v>22</v>
+      </c>
+      <c r="F290" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>149</v>
+      </c>
+      <c r="E291" s="2">
+        <v>14</v>
+      </c>
+      <c r="F291" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>149</v>
+      </c>
+      <c r="E292" s="2">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>149</v>
+      </c>
+      <c r="E293" s="2">
+        <v>32</v>
+      </c>
+      <c r="F293" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>149</v>
+      </c>
+      <c r="E294" s="2">
+        <v>31</v>
+      </c>
+      <c r="F294" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>149</v>
+      </c>
+      <c r="E295" s="2">
+        <v>18</v>
+      </c>
+      <c r="F295" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>149</v>
+      </c>
+      <c r="E296" s="2">
+        <v>16</v>
+      </c>
+      <c r="F296" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>149</v>
+      </c>
+      <c r="E297" s="2">
+        <v>9</v>
+      </c>
+      <c r="F297" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>149</v>
+      </c>
+      <c r="E298" s="2">
+        <v>19</v>
+      </c>
+      <c r="F298" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>149</v>
+      </c>
+      <c r="E299" s="2">
+        <v>30</v>
+      </c>
+      <c r="F299" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>149</v>
+      </c>
+      <c r="E300" s="2">
+        <v>11</v>
+      </c>
+      <c r="F300" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>149</v>
+      </c>
+      <c r="E301" s="2">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>149</v>
+      </c>
+      <c r="E302" s="2">
+        <v>24</v>
+      </c>
+      <c r="F302" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>149</v>
+      </c>
+      <c r="E303" s="2">
+        <v>24</v>
+      </c>
+      <c r="F303" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>149</v>
+      </c>
+      <c r="E304" s="2">
+        <v>20</v>
+      </c>
+      <c r="F304" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>149</v>
+      </c>
+      <c r="E305" s="2">
+        <v>12</v>
+      </c>
+      <c r="F305" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>149</v>
+      </c>
+      <c r="E306" s="2">
+        <v>20</v>
+      </c>
+      <c r="F306" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>149</v>
+      </c>
+      <c r="E307" s="2">
+        <v>14</v>
+      </c>
+      <c r="F307" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>149</v>
+      </c>
+      <c r="E308" s="2">
+        <v>31</v>
+      </c>
+      <c r="F308" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>149</v>
+      </c>
+      <c r="E309" s="2">
+        <v>15</v>
+      </c>
+      <c r="F309" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>149</v>
+      </c>
+      <c r="E310" s="2">
+        <v>30</v>
+      </c>
+      <c r="F310" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>149</v>
+      </c>
+      <c r="E311" s="2">
+        <v>14</v>
+      </c>
+      <c r="F311" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>149</v>
+      </c>
+      <c r="E312" s="2">
+        <v>30</v>
+      </c>
+      <c r="F312" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>149</v>
+      </c>
+      <c r="E313" s="2">
+        <v>10</v>
+      </c>
+      <c r="F313" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>149</v>
+      </c>
+      <c r="E314" s="2">
+        <v>11</v>
+      </c>
+      <c r="F314" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>149</v>
+      </c>
+      <c r="E315" s="2">
+        <v>12</v>
+      </c>
+      <c r="F315" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>149</v>
+      </c>
+      <c r="E316" s="2">
+        <v>17</v>
+      </c>
+      <c r="F316" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>149</v>
+      </c>
+      <c r="E317" s="2">
+        <v>30</v>
+      </c>
+      <c r="F317" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>149</v>
+      </c>
+      <c r="E318" s="2">
+        <v>24</v>
+      </c>
+      <c r="F318" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>149</v>
+      </c>
+      <c r="E319" s="2">
+        <v>14</v>
+      </c>
+      <c r="F319" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>149</v>
+      </c>
+      <c r="E320" s="2">
+        <v>17</v>
+      </c>
+      <c r="F320" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>149</v>
+      </c>
+      <c r="E321" s="2">
+        <v>23</v>
+      </c>
+      <c r="F321" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>149</v>
+      </c>
+      <c r="E322" s="2">
+        <v>12</v>
+      </c>
+      <c r="F322" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>149</v>
+      </c>
+      <c r="E323" s="2">
+        <v>9</v>
+      </c>
+      <c r="F323" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>149</v>
+      </c>
+      <c r="E324" s="2">
+        <v>24</v>
+      </c>
+      <c r="F324" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>149</v>
+      </c>
+      <c r="E325" s="2">
+        <v>23</v>
+      </c>
+      <c r="F325" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>149</v>
+      </c>
+      <c r="E326" s="2">
+        <v>30</v>
+      </c>
+      <c r="F326" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>149</v>
+      </c>
+      <c r="E327" s="2">
+        <v>26</v>
+      </c>
+      <c r="F327" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>149</v>
+      </c>
+      <c r="E328" s="2">
+        <v>11</v>
+      </c>
+      <c r="F328" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>149</v>
+      </c>
+      <c r="E329" s="2">
+        <v>27</v>
+      </c>
+      <c r="F329" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>149</v>
+      </c>
+      <c r="E330" s="2">
+        <v>25</v>
+      </c>
+      <c r="F330" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>149</v>
+      </c>
+      <c r="E331" s="2">
+        <v>18</v>
+      </c>
+      <c r="F331" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>149</v>
+      </c>
+      <c r="E332" s="2">
+        <v>19</v>
+      </c>
+      <c r="F332" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>149</v>
+      </c>
+      <c r="E333" s="2">
+        <v>14</v>
+      </c>
+      <c r="F333" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>149</v>
+      </c>
+      <c r="E334" s="2">
+        <v>28</v>
+      </c>
+      <c r="F334" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>149</v>
+      </c>
+      <c r="E335" s="2">
+        <v>17</v>
+      </c>
+      <c r="F335" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>149</v>
+      </c>
+      <c r="E336" s="2">
+        <v>21</v>
+      </c>
+      <c r="F336" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>149</v>
+      </c>
+      <c r="E337" s="2">
+        <v>27</v>
+      </c>
+      <c r="F337" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>149</v>
+      </c>
+      <c r="E338" s="2">
+        <v>11</v>
+      </c>
+      <c r="F338" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>149</v>
+      </c>
+      <c r="E339" s="2">
+        <v>13</v>
+      </c>
+      <c r="F339" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>149</v>
+      </c>
+      <c r="E340" s="2">
+        <v>11</v>
+      </c>
+      <c r="F340" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>149</v>
+      </c>
+      <c r="E341" s="2">
+        <v>21</v>
+      </c>
+      <c r="F341" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>149</v>
+      </c>
+      <c r="E342" s="2">
+        <v>16</v>
+      </c>
+      <c r="F342" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>149</v>
+      </c>
+      <c r="E343" s="2">
+        <v>32</v>
+      </c>
+      <c r="F343" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>149</v>
+      </c>
+      <c r="E344" s="2">
+        <v>15</v>
+      </c>
+      <c r="F344" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>149</v>
+      </c>
+      <c r="E345" s="2">
+        <v>19</v>
+      </c>
+      <c r="F345" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>149</v>
+      </c>
+      <c r="E346" s="2">
+        <v>12</v>
+      </c>
+      <c r="F346" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>149</v>
+      </c>
+      <c r="E347" s="2">
+        <v>12</v>
+      </c>
+      <c r="F347" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>149</v>
+      </c>
+      <c r="E348" s="2">
+        <v>11</v>
+      </c>
+      <c r="F348" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>149</v>
+      </c>
+      <c r="E349" s="2">
+        <v>14</v>
+      </c>
+      <c r="F349" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>149</v>
+      </c>
+      <c r="E350" s="2">
+        <v>12</v>
+      </c>
+      <c r="F350" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>149</v>
+      </c>
+      <c r="E351" s="2">
+        <v>29</v>
+      </c>
+      <c r="F351" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>149</v>
+      </c>
+      <c r="E352" s="2">
+        <v>28</v>
+      </c>
+      <c r="F352" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>149</v>
+      </c>
+      <c r="E353" s="2">
+        <v>20</v>
+      </c>
+      <c r="F353" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>149</v>
+      </c>
+      <c r="E354" s="2">
+        <v>14</v>
+      </c>
+      <c r="F354" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>149</v>
+      </c>
+      <c r="E355" s="2">
+        <v>13</v>
+      </c>
+      <c r="F355" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>149</v>
+      </c>
+      <c r="E356" s="2">
+        <v>25</v>
+      </c>
+      <c r="F356" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>149</v>
+      </c>
+      <c r="E357" s="2">
+        <v>14</v>
+      </c>
+      <c r="F357" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>149</v>
+      </c>
+      <c r="E358" s="2">
+        <v>14</v>
+      </c>
+      <c r="F358" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>149</v>
+      </c>
+      <c r="E359" s="2">
+        <v>12</v>
+      </c>
+      <c r="F359" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>149</v>
+      </c>
+      <c r="E360" s="2">
+        <v>19</v>
+      </c>
+      <c r="F360" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>149</v>
+      </c>
+      <c r="E361" s="2">
+        <v>23</v>
+      </c>
+      <c r="F361" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>149</v>
+      </c>
+      <c r="E362" s="2">
+        <v>12</v>
+      </c>
+      <c r="F362" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>149</v>
+      </c>
+      <c r="E363" s="2">
+        <v>19</v>
+      </c>
+      <c r="F363" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>149</v>
+      </c>
+      <c r="E364" s="2">
+        <v>11</v>
+      </c>
+      <c r="F364" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>149</v>
+      </c>
+      <c r="E365" s="2">
+        <v>18</v>
+      </c>
+      <c r="F365" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>149</v>
+      </c>
+      <c r="E366" s="2">
+        <v>27</v>
+      </c>
+      <c r="F366" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>149</v>
+      </c>
+      <c r="E367" s="2">
+        <v>14</v>
+      </c>
+      <c r="F367" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>149</v>
+      </c>
+      <c r="E368" s="2">
+        <v>18</v>
+      </c>
+      <c r="F368" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>149</v>
+      </c>
+      <c r="E369" s="2">
+        <v>17</v>
+      </c>
+      <c r="F369" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>149</v>
+      </c>
+      <c r="E370" s="2">
+        <v>20</v>
+      </c>
+      <c r="F370" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>149</v>
+      </c>
+      <c r="E371" s="2">
+        <v>16</v>
+      </c>
+      <c r="F371" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>149</v>
+      </c>
+      <c r="E372" s="2">
+        <v>33</v>
+      </c>
+      <c r="F372" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>149</v>
+      </c>
+      <c r="E373" s="2">
+        <v>9</v>
+      </c>
+      <c r="F373" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>149</v>
+      </c>
+      <c r="E374" s="2">
+        <v>14</v>
+      </c>
+      <c r="F374" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>149</v>
+      </c>
+      <c r="E375" s="2">
+        <v>17</v>
+      </c>
+      <c r="F375" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>149</v>
+      </c>
+      <c r="E376" s="2">
+        <v>27</v>
+      </c>
+      <c r="F376" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>149</v>
+      </c>
+      <c r="E377" s="2">
+        <v>10</v>
+      </c>
+      <c r="F377" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>149</v>
+      </c>
+      <c r="E378" s="2">
+        <v>10</v>
+      </c>
+      <c r="F378" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>149</v>
+      </c>
+      <c r="E379" s="2">
+        <v>21</v>
+      </c>
+      <c r="F379" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>149</v>
+      </c>
+      <c r="E380" s="2">
+        <v>28</v>
+      </c>
+      <c r="F380" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>149</v>
+      </c>
+      <c r="E381" s="2">
+        <v>15</v>
+      </c>
+      <c r="F381" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>149</v>
+      </c>
+      <c r="E382" s="2">
+        <v>19</v>
+      </c>
+      <c r="F382" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>149</v>
+      </c>
+      <c r="E383" s="2">
+        <v>19</v>
+      </c>
+      <c r="F383" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>149</v>
+      </c>
+      <c r="E384" s="2">
+        <v>30</v>
+      </c>
+      <c r="F384" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>149</v>
+      </c>
+      <c r="E385" s="2">
+        <v>12</v>
+      </c>
+      <c r="F385" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>149</v>
+      </c>
+      <c r="E386" s="2">
+        <v>10</v>
+      </c>
+      <c r="F386" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>149</v>
+      </c>
+      <c r="E387" s="2">
+        <v>9</v>
+      </c>
+      <c r="F387" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>149</v>
+      </c>
+      <c r="E388" s="2">
+        <v>20</v>
+      </c>
+      <c r="F388" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>149</v>
+      </c>
+      <c r="E389" s="2">
+        <v>10</v>
+      </c>
+      <c r="F389" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>149</v>
+      </c>
+      <c r="E390" s="2">
+        <v>18</v>
+      </c>
+      <c r="F390" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>149</v>
+      </c>
+      <c r="E391" s="2">
+        <v>19</v>
+      </c>
+      <c r="F391" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>149</v>
+      </c>
+      <c r="E392" s="2">
+        <v>14</v>
+      </c>
+      <c r="F392" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>149</v>
+      </c>
+      <c r="E393" s="2">
+        <v>15</v>
+      </c>
+      <c r="F393" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>149</v>
+      </c>
+      <c r="E394" s="2">
+        <v>9</v>
+      </c>
+      <c r="F394" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>149</v>
+      </c>
+      <c r="E395" s="2">
+        <v>27</v>
+      </c>
+      <c r="F395" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>149</v>
+      </c>
+      <c r="E396" s="2">
+        <v>21</v>
+      </c>
+      <c r="F396" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>149</v>
+      </c>
+      <c r="E397" s="2">
+        <v>28</v>
+      </c>
+      <c r="F397" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>149</v>
+      </c>
+      <c r="E398" s="2">
+        <v>24</v>
+      </c>
+      <c r="F398" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>149</v>
+      </c>
+      <c r="E399" s="2">
+        <v>17</v>
+      </c>
+      <c r="F399" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>149</v>
+      </c>
+      <c r="E400" s="2">
+        <v>25</v>
+      </c>
+      <c r="F400" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>149</v>
+      </c>
+      <c r="E401" s="2">
+        <v>16</v>
+      </c>
+      <c r="F401" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>149</v>
+      </c>
+      <c r="E402" s="2">
+        <v>25</v>
+      </c>
+      <c r="F402" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>149</v>
+      </c>
+      <c r="E403" s="2">
+        <v>27</v>
+      </c>
+      <c r="F403" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>149</v>
+      </c>
+      <c r="E404" s="2">
+        <v>17</v>
+      </c>
+      <c r="F404" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>149</v>
+      </c>
+      <c r="E405" s="2">
+        <v>22</v>
+      </c>
+      <c r="F405" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>149</v>
+      </c>
+      <c r="E406" s="2">
+        <v>11</v>
+      </c>
+      <c r="F406" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>149</v>
+      </c>
+      <c r="E407" s="2">
+        <v>16</v>
+      </c>
+      <c r="F407" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>149</v>
+      </c>
+      <c r="E408" s="2">
+        <v>22</v>
+      </c>
+      <c r="F408" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>149</v>
+      </c>
+      <c r="E409" s="2">
+        <v>29</v>
+      </c>
+      <c r="F409" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>149</v>
+      </c>
+      <c r="E410" s="2">
+        <v>19</v>
+      </c>
+      <c r="F410" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>149</v>
+      </c>
+      <c r="E411" s="2">
+        <v>23</v>
+      </c>
+      <c r="F411" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>149</v>
+      </c>
+      <c r="E412" s="2">
+        <v>9</v>
+      </c>
+      <c r="F412" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>149</v>
+      </c>
+      <c r="E413" s="2">
+        <v>31</v>
+      </c>
+      <c r="F413" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>149</v>
+      </c>
+      <c r="E414" s="2">
+        <v>24</v>
+      </c>
+      <c r="F414" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>149</v>
+      </c>
+      <c r="E415" s="2">
+        <v>19</v>
+      </c>
+      <c r="F415" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>149</v>
+      </c>
+      <c r="E416" s="2">
+        <v>32</v>
+      </c>
+      <c r="F416" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>149</v>
+      </c>
+      <c r="E417" s="2">
+        <v>21</v>
+      </c>
+      <c r="F417" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>149</v>
+      </c>
+      <c r="E418" s="2">
+        <v>21</v>
+      </c>
+      <c r="F418" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>149</v>
+      </c>
+      <c r="E419" s="2">
+        <v>18</v>
+      </c>
+      <c r="F419" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>149</v>
+      </c>
+      <c r="E420" s="2">
+        <v>17</v>
+      </c>
+      <c r="F420" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>149</v>
+      </c>
+      <c r="E421" s="2">
+        <v>26</v>
+      </c>
+      <c r="F421" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>149</v>
+      </c>
+      <c r="E422" s="2">
+        <v>17</v>
+      </c>
+      <c r="F422" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>149</v>
+      </c>
+      <c r="E423" s="2">
+        <v>24</v>
+      </c>
+      <c r="F423" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>149</v>
+      </c>
+      <c r="E424" s="2">
+        <v>25</v>
+      </c>
+      <c r="F424" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>149</v>
+      </c>
+      <c r="E425" s="2">
+        <v>27</v>
+      </c>
+      <c r="F425" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>149</v>
+      </c>
+      <c r="E426" s="2">
+        <v>17</v>
+      </c>
+      <c r="F426" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>149</v>
+      </c>
+      <c r="E427" s="2">
+        <v>9</v>
+      </c>
+      <c r="F427" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>149</v>
+      </c>
+      <c r="E428" s="2">
+        <v>27</v>
+      </c>
+      <c r="F428" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>149</v>
+      </c>
+      <c r="E429" s="2">
+        <v>24</v>
+      </c>
+      <c r="F429" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>149</v>
+      </c>
+      <c r="E430" s="2">
+        <v>10</v>
+      </c>
+      <c r="F430" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>149</v>
+      </c>
+      <c r="E431" s="2">
+        <v>25</v>
+      </c>
+      <c r="F431" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>149</v>
+      </c>
+      <c r="E432" s="2">
+        <v>25</v>
+      </c>
+      <c r="F432" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>149</v>
+      </c>
+      <c r="E433" s="2">
+        <v>28</v>
+      </c>
+      <c r="F433" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>149</v>
+      </c>
+      <c r="E434" s="2">
+        <v>23</v>
+      </c>
+      <c r="F434" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>149</v>
+      </c>
+      <c r="E435" s="2">
+        <v>12</v>
+      </c>
+      <c r="F435" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>149</v>
+      </c>
+      <c r="E436" s="2">
+        <v>24</v>
+      </c>
+      <c r="F436" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>149</v>
+      </c>
+      <c r="E437" s="2">
+        <v>24</v>
+      </c>
+      <c r="F437" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>149</v>
+      </c>
+      <c r="E438" s="2">
+        <v>25</v>
+      </c>
+      <c r="F438" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>149</v>
+      </c>
+      <c r="E439" s="2">
+        <v>17</v>
+      </c>
+      <c r="F439" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>149</v>
+      </c>
+      <c r="E440" s="2">
+        <v>30</v>
+      </c>
+      <c r="F440" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>149</v>
+      </c>
+      <c r="E441" s="2">
+        <v>17</v>
+      </c>
+      <c r="F441" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>149</v>
+      </c>
+      <c r="E442" s="2">
+        <v>26</v>
+      </c>
+      <c r="F442" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>149</v>
+      </c>
+      <c r="E443" s="2">
+        <v>33</v>
+      </c>
+      <c r="F443" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>149</v>
+      </c>
+      <c r="E444" s="2">
+        <v>25</v>
+      </c>
+      <c r="F444" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>149</v>
+      </c>
+      <c r="E445" s="2">
+        <v>31</v>
+      </c>
+      <c r="F445" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>149</v>
+      </c>
+      <c r="E446" s="2">
+        <v>28</v>
+      </c>
+      <c r="F446" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>149</v>
+      </c>
+      <c r="E447" s="2">
+        <v>9</v>
+      </c>
+      <c r="F447" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>149</v>
+      </c>
+      <c r="E448" s="2">
+        <v>28</v>
+      </c>
+      <c r="F448" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>149</v>
+      </c>
+      <c r="E449" s="2">
+        <v>33</v>
+      </c>
+      <c r="F449" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>149</v>
+      </c>
+      <c r="E450" s="2">
+        <v>24</v>
+      </c>
+      <c r="F450" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>149</v>
+      </c>
+      <c r="E451" s="2">
+        <v>9</v>
+      </c>
+      <c r="F451" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>149</v>
+      </c>
+      <c r="E452" s="2">
+        <v>30</v>
+      </c>
+      <c r="F452" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>149</v>
+      </c>
+      <c r="E453" s="2">
+        <v>13</v>
+      </c>
+      <c r="F453" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>149</v>
+      </c>
+      <c r="E454" s="2">
+        <v>21</v>
+      </c>
+      <c r="F454" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>149</v>
+      </c>
+      <c r="E455" s="2">
+        <v>24</v>
+      </c>
+      <c r="F455" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>149</v>
+      </c>
+      <c r="E456" s="2">
+        <v>14</v>
+      </c>
+      <c r="F456" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>149</v>
+      </c>
+      <c r="E457" s="2">
+        <v>23</v>
+      </c>
+      <c r="F457" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>149</v>
+      </c>
+      <c r="E458" s="2">
+        <v>18</v>
+      </c>
+      <c r="F458" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>149</v>
+      </c>
+      <c r="E459" s="2">
+        <v>28</v>
+      </c>
+      <c r="F459" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>149</v>
+      </c>
+      <c r="E460" s="2">
+        <v>29</v>
+      </c>
+      <c r="F460" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>149</v>
+      </c>
+      <c r="E461" s="2">
+        <v>33</v>
+      </c>
+      <c r="F461" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>149</v>
+      </c>
+      <c r="E462" s="2">
+        <v>12</v>
+      </c>
+      <c r="F462" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>149</v>
+      </c>
+      <c r="E463" s="2">
+        <v>27</v>
+      </c>
+      <c r="F463" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>149</v>
+      </c>
+      <c r="E464" s="2">
+        <v>27</v>
+      </c>
+      <c r="F464" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>149</v>
+      </c>
+      <c r="E465" s="2">
+        <v>10</v>
+      </c>
+      <c r="F465" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>149</v>
+      </c>
+      <c r="E466" s="2">
+        <v>23</v>
+      </c>
+      <c r="F466" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>149</v>
+      </c>
+      <c r="E467" s="2">
+        <v>20</v>
+      </c>
+      <c r="F467" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>149</v>
+      </c>
+      <c r="E468" s="2">
+        <v>19</v>
+      </c>
+      <c r="F468" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>149</v>
+      </c>
+      <c r="E469" s="2">
+        <v>31</v>
+      </c>
+      <c r="F469" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>149</v>
+      </c>
+      <c r="E470" s="2">
+        <v>9</v>
+      </c>
+      <c r="F470" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>149</v>
+      </c>
+      <c r="E471" s="2">
+        <v>30</v>
+      </c>
+      <c r="F471" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>149</v>
+      </c>
+      <c r="E472" s="2">
+        <v>15</v>
+      </c>
+      <c r="F472" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>149</v>
+      </c>
+      <c r="E473" s="2">
+        <v>26</v>
+      </c>
+      <c r="F473" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>149</v>
+      </c>
+      <c r="E474" s="2">
+        <v>25</v>
+      </c>
+      <c r="F474" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>149</v>
+      </c>
+      <c r="E475" s="2">
+        <v>26</v>
+      </c>
+      <c r="F475" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>149</v>
+      </c>
+      <c r="E476" s="2">
+        <v>11</v>
+      </c>
+      <c r="F476" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>149</v>
+      </c>
+      <c r="E477" s="2">
+        <v>29</v>
+      </c>
+      <c r="F477" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>149</v>
+      </c>
+      <c r="E478" s="2">
+        <v>31</v>
+      </c>
+      <c r="F478" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>149</v>
+      </c>
+      <c r="E479" s="2">
+        <v>15</v>
+      </c>
+      <c r="F479" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>149</v>
+      </c>
+      <c r="E480" s="2">
+        <v>33</v>
+      </c>
+      <c r="F480" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>149</v>
+      </c>
+      <c r="E481" s="2">
+        <v>12</v>
+      </c>
+      <c r="F481" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>149</v>
+      </c>
+      <c r="E482" s="2">
+        <v>12</v>
+      </c>
+      <c r="F482" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>149</v>
+      </c>
+      <c r="E483" s="2">
+        <v>19</v>
+      </c>
+      <c r="F483" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>149</v>
+      </c>
+      <c r="E484" s="2">
+        <v>29</v>
+      </c>
+      <c r="F484" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>149</v>
+      </c>
+      <c r="E485" s="2">
+        <v>11</v>
+      </c>
+      <c r="F485" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>149</v>
+      </c>
+      <c r="E486" s="2">
+        <v>32</v>
+      </c>
+      <c r="F486" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>149</v>
+      </c>
+      <c r="E487" s="2">
+        <v>10</v>
+      </c>
+      <c r="F487" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>149</v>
+      </c>
+      <c r="E488" s="2">
+        <v>15</v>
+      </c>
+      <c r="F488" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>149</v>
+      </c>
+      <c r="E489" s="2">
+        <v>10</v>
+      </c>
+      <c r="F489" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>149</v>
+      </c>
+      <c r="E490" s="2">
+        <v>18</v>
+      </c>
+      <c r="F490" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>149</v>
+      </c>
+      <c r="E491" s="2">
+        <v>10</v>
+      </c>
+      <c r="F491" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>149</v>
+      </c>
+      <c r="E492" s="2">
+        <v>12</v>
+      </c>
+      <c r="F492" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>149</v>
+      </c>
+      <c r="E493" s="2">
+        <v>10</v>
+      </c>
+      <c r="F493" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>149</v>
+      </c>
+      <c r="E494" s="2">
+        <v>10</v>
+      </c>
+      <c r="F494" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>149</v>
+      </c>
+      <c r="E495" s="2">
+        <v>28</v>
+      </c>
+      <c r="F495" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>149</v>
+      </c>
+      <c r="E496" s="2">
+        <v>29</v>
+      </c>
+      <c r="F496" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>149</v>
+      </c>
+      <c r="E497" s="2">
+        <v>21</v>
+      </c>
+      <c r="F497" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>149</v>
+      </c>
+      <c r="E498" s="2">
+        <v>14</v>
+      </c>
+      <c r="F498" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>149</v>
+      </c>
+      <c r="E499" s="2">
+        <v>22</v>
+      </c>
+      <c r="F499" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>149</v>
+      </c>
+      <c r="E500" s="2">
+        <v>30</v>
+      </c>
+      <c r="F500" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>149</v>
+      </c>
+      <c r="E501" s="2">
+        <v>11</v>
+      </c>
+      <c r="F501" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>149</v>
+      </c>
+      <c r="E502" s="2">
+        <v>26</v>
+      </c>
+      <c r="F502" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>149</v>
+      </c>
+      <c r="E503" s="2">
+        <v>29</v>
+      </c>
+      <c r="F503" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>149</v>
+      </c>
+      <c r="E504" s="2">
+        <v>15</v>
+      </c>
+      <c r="F504" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>149</v>
+      </c>
+      <c r="E505" s="2">
+        <v>28</v>
+      </c>
+      <c r="F505" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>149</v>
+      </c>
+      <c r="E506" s="2">
+        <v>10</v>
+      </c>
+      <c r="F506" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>149</v>
+      </c>
+      <c r="E507" s="2">
+        <v>17</v>
+      </c>
+      <c r="F507" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>149</v>
+      </c>
+      <c r="E508" s="2">
+        <v>19</v>
+      </c>
+      <c r="F508" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>149</v>
+      </c>
+      <c r="E509" s="2">
+        <v>22</v>
+      </c>
+      <c r="F509" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>149</v>
+      </c>
+      <c r="E510" s="2">
+        <v>26</v>
+      </c>
+      <c r="F510" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>149</v>
+      </c>
+      <c r="E511" s="2">
+        <v>27</v>
+      </c>
+      <c r="F511" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>149</v>
+      </c>
+      <c r="E512" s="2">
+        <v>13</v>
+      </c>
+      <c r="F512" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>149</v>
+      </c>
+      <c r="E513" s="2">
+        <v>25</v>
+      </c>
+      <c r="F513" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>149</v>
+      </c>
+      <c r="E514" s="2">
+        <v>11</v>
+      </c>
+      <c r="F514" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>149</v>
+      </c>
+      <c r="E515" s="2">
+        <v>11</v>
+      </c>
+      <c r="F515" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>149</v>
+      </c>
+      <c r="E516" s="2">
+        <v>26</v>
+      </c>
+      <c r="F516" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>149</v>
+      </c>
+      <c r="E517" s="2">
+        <v>13</v>
+      </c>
+      <c r="F517" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>149</v>
+      </c>
+      <c r="E518" s="2">
+        <v>33</v>
+      </c>
+      <c r="F518" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>149</v>
+      </c>
+      <c r="E519" s="2">
+        <v>32</v>
+      </c>
+      <c r="F519" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>149</v>
+      </c>
+      <c r="E520" s="2">
+        <v>17</v>
+      </c>
+      <c r="F520" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>149</v>
+      </c>
+      <c r="E521" s="2">
+        <v>26</v>
+      </c>
+      <c r="F521" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>149</v>
+      </c>
+      <c r="E522" s="2">
+        <v>12</v>
+      </c>
+      <c r="F522" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>149</v>
+      </c>
+      <c r="E523" s="2">
+        <v>13</v>
+      </c>
+      <c r="F523" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>149</v>
+      </c>
+      <c r="E524" s="2">
+        <v>20</v>
+      </c>
+      <c r="F524" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>149</v>
+      </c>
+      <c r="E525" s="2">
+        <v>16</v>
+      </c>
+      <c r="F525" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>149</v>
+      </c>
+      <c r="E526" s="2">
+        <v>32</v>
+      </c>
+      <c r="F526" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>149</v>
+      </c>
+      <c r="E527" s="2">
+        <v>25</v>
+      </c>
+      <c r="F527" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>149</v>
+      </c>
+      <c r="E528" s="2">
+        <v>31</v>
+      </c>
+      <c r="F528" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>149</v>
+      </c>
+      <c r="E529" s="2">
+        <v>27</v>
+      </c>
+      <c r="F529" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>149</v>
+      </c>
+      <c r="E530" s="2">
+        <v>23</v>
+      </c>
+      <c r="F530" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>149</v>
+      </c>
+      <c r="E531" s="2">
+        <v>33</v>
+      </c>
+      <c r="F531" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>149</v>
+      </c>
+      <c r="E532" s="2">
+        <v>9</v>
+      </c>
+      <c r="F532" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>149</v>
+      </c>
+      <c r="E533" s="2">
+        <v>15</v>
+      </c>
+      <c r="F533" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>149</v>
+      </c>
+      <c r="E534" s="2">
+        <v>20</v>
+      </c>
+      <c r="F534" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>149</v>
+      </c>
+      <c r="E535" s="2">
+        <v>15</v>
+      </c>
+      <c r="F535" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>149</v>
+      </c>
+      <c r="E536" s="2">
+        <v>29</v>
+      </c>
+      <c r="F536" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>149</v>
+      </c>
+      <c r="E537" s="2">
+        <v>21</v>
+      </c>
+      <c r="F537" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>149</v>
+      </c>
+      <c r="E538" s="2">
+        <v>12</v>
+      </c>
+      <c r="F538" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>149</v>
+      </c>
+      <c r="E539" s="2">
+        <v>33</v>
+      </c>
+      <c r="F539" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>149</v>
+      </c>
+      <c r="E540" s="2">
+        <v>16</v>
+      </c>
+      <c r="F540" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>149</v>
+      </c>
+      <c r="E541" s="2">
+        <v>10</v>
+      </c>
+      <c r="F541" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>149</v>
+      </c>
+      <c r="E542" s="2">
+        <v>28</v>
+      </c>
+      <c r="F542" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>149</v>
+      </c>
+      <c r="E543" s="2">
+        <v>15</v>
+      </c>
+      <c r="F543" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>149</v>
+      </c>
+      <c r="E544" s="2">
+        <v>14</v>
+      </c>
+      <c r="F544" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>149</v>
+      </c>
+      <c r="E545" s="2">
+        <v>29</v>
+      </c>
+      <c r="F545" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>149</v>
+      </c>
+      <c r="E546" s="2">
+        <v>14</v>
+      </c>
+      <c r="F546" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>149</v>
+      </c>
+      <c r="E547" s="2">
+        <v>14</v>
+      </c>
+      <c r="F547" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>149</v>
+      </c>
+      <c r="E548" s="2">
+        <v>9</v>
+      </c>
+      <c r="F548" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>149</v>
+      </c>
+      <c r="E549" s="2">
+        <v>11</v>
+      </c>
+      <c r="F549" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>149</v>
+      </c>
+      <c r="E550" s="2">
+        <v>10</v>
+      </c>
+      <c r="F550" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>149</v>
+      </c>
+      <c r="E551" s="2">
+        <v>16</v>
+      </c>
+      <c r="F551" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>149</v>
+      </c>
+      <c r="E552" s="2">
+        <v>18</v>
+      </c>
+      <c r="F552" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>149</v>
+      </c>
+      <c r="E553" s="2">
+        <v>28</v>
+      </c>
+      <c r="F553" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>149</v>
+      </c>
+      <c r="E554" s="2">
+        <v>32</v>
+      </c>
+      <c r="F554" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>149</v>
+      </c>
+      <c r="E555" s="2">
+        <v>29</v>
+      </c>
+      <c r="F555" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>149</v>
+      </c>
+      <c r="E556" s="2">
+        <v>20</v>
+      </c>
+      <c r="F556" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>149</v>
+      </c>
+      <c r="E557" s="2">
+        <v>20</v>
+      </c>
+      <c r="F557" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>149</v>
+      </c>
+      <c r="E558" s="2">
+        <v>13</v>
+      </c>
+      <c r="F558" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>149</v>
+      </c>
+      <c r="E559" s="2">
+        <v>31</v>
+      </c>
+      <c r="F559" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>149</v>
+      </c>
+      <c r="E560" s="2">
+        <v>25</v>
+      </c>
+      <c r="F560" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>149</v>
+      </c>
+      <c r="E561" s="2">
+        <v>13</v>
+      </c>
+      <c r="F561" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>149</v>
+      </c>
+      <c r="E562" s="2">
+        <v>15</v>
+      </c>
+      <c r="F562" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>149</v>
+      </c>
+      <c r="E563" s="2">
+        <v>17</v>
+      </c>
+      <c r="F563" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>149</v>
+      </c>
+      <c r="E564" s="2">
+        <v>15</v>
+      </c>
+      <c r="F564" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>149</v>
+      </c>
+      <c r="E565" s="2">
+        <v>21</v>
+      </c>
+      <c r="F565" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>149</v>
+      </c>
+      <c r="E566" s="2">
+        <v>32</v>
+      </c>
+      <c r="F566" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>149</v>
+      </c>
+      <c r="E567" s="2">
+        <v>22</v>
+      </c>
+      <c r="F567" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>149</v>
+      </c>
+      <c r="E568" s="2">
+        <v>14</v>
+      </c>
+      <c r="F568" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>149</v>
+      </c>
+      <c r="E569" s="2">
+        <v>27</v>
+      </c>
+      <c r="F569" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>149</v>
+      </c>
+      <c r="E570" s="2">
+        <v>14</v>
+      </c>
+      <c r="F570" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>149</v>
+      </c>
+      <c r="E571" s="2">
+        <v>14</v>
+      </c>
+      <c r="F571" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>149</v>
+      </c>
+      <c r="E572" s="2">
+        <v>31</v>
+      </c>
+      <c r="F572" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>149</v>
+      </c>
+      <c r="E573" s="2">
+        <v>21</v>
+      </c>
+      <c r="F573" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>149</v>
+      </c>
+      <c r="E574" s="2">
+        <v>33</v>
+      </c>
+      <c r="F574" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>149</v>
+      </c>
+      <c r="E575" s="2">
+        <v>10</v>
+      </c>
+      <c r="F575" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>149</v>
+      </c>
+      <c r="E576" s="2">
+        <v>12</v>
+      </c>
+      <c r="F576" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>149</v>
+      </c>
+      <c r="E577" s="2">
+        <v>18</v>
+      </c>
+      <c r="F577" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>149</v>
+      </c>
+      <c r="E578" s="2">
+        <v>11</v>
+      </c>
+      <c r="F578" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>149</v>
+      </c>
+      <c r="E579" s="2">
+        <v>9</v>
+      </c>
+      <c r="F579" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>149</v>
+      </c>
+      <c r="E580" s="2">
+        <v>23</v>
+      </c>
+      <c r="F580" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>149</v>
+      </c>
+      <c r="E581" s="2">
+        <v>23</v>
+      </c>
+      <c r="F581" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>149</v>
+      </c>
+      <c r="E582" s="2">
+        <v>9</v>
+      </c>
+      <c r="F582" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>149</v>
+      </c>
+      <c r="E583" s="2">
+        <v>10</v>
+      </c>
+      <c r="F583" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>149</v>
+      </c>
+      <c r="E584" s="2">
+        <v>16</v>
+      </c>
+      <c r="F584" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>149</v>
+      </c>
+      <c r="E585" s="2">
+        <v>18</v>
+      </c>
+      <c r="F585" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>149</v>
+      </c>
+      <c r="E586" s="2">
+        <v>10</v>
+      </c>
+      <c r="F586" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>149</v>
+      </c>
+      <c r="E587" s="2">
+        <v>11</v>
+      </c>
+      <c r="F587" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>149</v>
+      </c>
+      <c r="E588" s="2">
+        <v>30</v>
+      </c>
+      <c r="F588" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>149</v>
+      </c>
+      <c r="E589" s="2">
+        <v>16</v>
+      </c>
+      <c r="F589" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>149</v>
+      </c>
+      <c r="E590" s="2">
+        <v>26</v>
+      </c>
+      <c r="F590" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>149</v>
+      </c>
+      <c r="E591" s="2">
+        <v>23</v>
+      </c>
+      <c r="F591" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>149</v>
+      </c>
+      <c r="E592" s="2">
+        <v>13</v>
+      </c>
+      <c r="F592" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>149</v>
+      </c>
+      <c r="E593" s="2">
+        <v>25</v>
+      </c>
+      <c r="F593" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>149</v>
+      </c>
+      <c r="E594" s="2">
+        <v>22</v>
+      </c>
+      <c r="F594" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>149</v>
+      </c>
+      <c r="E595" s="2">
+        <v>28</v>
+      </c>
+      <c r="F595" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>149</v>
+      </c>
+      <c r="E596" s="2">
+        <v>10</v>
+      </c>
+      <c r="F596" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>149</v>
+      </c>
+      <c r="E597" s="2">
+        <v>27</v>
+      </c>
+      <c r="F597" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>149</v>
+      </c>
+      <c r="E598" s="2">
+        <v>9</v>
+      </c>
+      <c r="F598" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>149</v>
+      </c>
+      <c r="E599" s="2">
+        <v>26</v>
+      </c>
+      <c r="F599" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>149</v>
+      </c>
+      <c r="E600" s="2">
+        <v>25</v>
+      </c>
+      <c r="F600" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>149</v>
+      </c>
+      <c r="E601" s="2">
+        <v>33</v>
+      </c>
+      <c r="F601" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>149</v>
+      </c>
+      <c r="E602" s="2">
+        <v>18</v>
+      </c>
+      <c r="F602" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>149</v>
+      </c>
+      <c r="E603" s="2">
+        <v>12</v>
+      </c>
+      <c r="F603" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>149</v>
+      </c>
+      <c r="E604" s="2">
+        <v>31</v>
+      </c>
+      <c r="F604" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>149</v>
+      </c>
+      <c r="E605" s="2">
+        <v>10</v>
+      </c>
+      <c r="F605" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>149</v>
+      </c>
+      <c r="E606" s="2">
+        <v>18</v>
+      </c>
+      <c r="F606" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>149</v>
+      </c>
+      <c r="E607" s="2">
+        <v>19</v>
+      </c>
+      <c r="F607" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>149</v>
+      </c>
+      <c r="E608" s="2">
+        <v>25</v>
+      </c>
+      <c r="F608" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>149</v>
+      </c>
+      <c r="E609" s="2">
+        <v>21</v>
+      </c>
+      <c r="F609" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>149</v>
+      </c>
+      <c r="E610" s="2">
+        <v>15</v>
+      </c>
+      <c r="F610" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>149</v>
+      </c>
+      <c r="E611" s="2">
+        <v>33</v>
+      </c>
+      <c r="F611" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>149</v>
+      </c>
+      <c r="E612" s="2">
+        <v>20</v>
+      </c>
+      <c r="F612" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>149</v>
+      </c>
+      <c r="E613" s="2">
+        <v>10</v>
+      </c>
+      <c r="F613" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>149</v>
+      </c>
+      <c r="E614" s="2">
+        <v>15</v>
+      </c>
+      <c r="F614" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>149</v>
+      </c>
+      <c r="E615" s="2">
+        <v>28</v>
+      </c>
+      <c r="F615" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>149</v>
+      </c>
+      <c r="E616" s="2">
+        <v>18</v>
+      </c>
+      <c r="F616" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>149</v>
+      </c>
+      <c r="E617" s="2">
+        <v>17</v>
+      </c>
+      <c r="F617" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>149</v>
+      </c>
+      <c r="E618" s="2">
+        <v>12</v>
+      </c>
+      <c r="F618" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>149</v>
+      </c>
+      <c r="E619" s="2">
+        <v>20</v>
+      </c>
+      <c r="F619" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>149</v>
+      </c>
+      <c r="E620" s="2">
+        <v>9</v>
+      </c>
+      <c r="F620" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>149</v>
+      </c>
+      <c r="E621" s="2">
+        <v>16</v>
+      </c>
+      <c r="F621" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>149</v>
+      </c>
+      <c r="E622" s="2">
+        <v>16</v>
+      </c>
+      <c r="F622" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>149</v>
+      </c>
+      <c r="E623" s="2">
+        <v>22</v>
+      </c>
+      <c r="F623" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>149</v>
+      </c>
+      <c r="E624" s="2">
+        <v>16</v>
+      </c>
+      <c r="F624" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>149</v>
+      </c>
+      <c r="E625" s="2">
+        <v>10</v>
+      </c>
+      <c r="F625" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>149</v>
+      </c>
+      <c r="E626" s="2">
+        <v>32</v>
+      </c>
+      <c r="F626" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>149</v>
+      </c>
+      <c r="E627" s="2">
+        <v>29</v>
+      </c>
+      <c r="F627" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>149</v>
+      </c>
+      <c r="E628" s="2">
+        <v>30</v>
+      </c>
+      <c r="F628" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>149</v>
+      </c>
+      <c r="E629" s="2">
+        <v>10</v>
+      </c>
+      <c r="F629" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>149</v>
+      </c>
+      <c r="E630" s="2">
+        <v>13</v>
+      </c>
+      <c r="F630" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>149</v>
+      </c>
+      <c r="E631" s="2">
+        <v>16</v>
+      </c>
+      <c r="F631" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>149</v>
+      </c>
+      <c r="E632" s="2">
+        <v>24</v>
+      </c>
+      <c r="F632" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>149</v>
+      </c>
+      <c r="E633" s="2">
+        <v>14</v>
+      </c>
+      <c r="F633" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>149</v>
+      </c>
+      <c r="E634" s="2">
+        <v>31</v>
+      </c>
+      <c r="F634" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>149</v>
+      </c>
+      <c r="E635" s="2">
+        <v>32</v>
+      </c>
+      <c r="F635" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>149</v>
+      </c>
+      <c r="E636" s="2">
+        <v>18</v>
+      </c>
+      <c r="F636" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>149</v>
+      </c>
+      <c r="E637" s="2">
+        <v>19</v>
+      </c>
+      <c r="F637" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>149</v>
+      </c>
+      <c r="E638" s="2">
+        <v>23</v>
+      </c>
+      <c r="F638" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>149</v>
+      </c>
+      <c r="E639" s="2">
+        <v>12</v>
+      </c>
+      <c r="F639" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>149</v>
+      </c>
+      <c r="E640" s="2">
+        <v>10</v>
+      </c>
+      <c r="F640" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>149</v>
+      </c>
+      <c r="E641" s="2">
+        <v>9</v>
+      </c>
+      <c r="F641" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>149</v>
+      </c>
+      <c r="E642" s="2">
+        <v>9</v>
+      </c>
+      <c r="F642" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>149</v>
+      </c>
+      <c r="E643" s="2">
+        <v>29</v>
+      </c>
+      <c r="F643" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>149</v>
+      </c>
+      <c r="E644" s="2">
+        <v>20</v>
+      </c>
+      <c r="F644" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>149</v>
+      </c>
+      <c r="E645" s="2">
+        <v>25</v>
+      </c>
+      <c r="F645" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>149</v>
+      </c>
+      <c r="E646" s="2">
+        <v>17</v>
+      </c>
+      <c r="F646" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>149</v>
+      </c>
+      <c r="E647" s="2">
+        <v>24</v>
+      </c>
+      <c r="F647" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>149</v>
+      </c>
+      <c r="E648" s="2">
+        <v>9</v>
+      </c>
+      <c r="F648" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>149</v>
+      </c>
+      <c r="E649" s="2">
+        <v>17</v>
+      </c>
+      <c r="F649" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>149</v>
+      </c>
+      <c r="E650" s="2">
+        <v>19</v>
+      </c>
+      <c r="F650" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>149</v>
+      </c>
+      <c r="E651" s="2">
+        <v>18</v>
+      </c>
+      <c r="F651" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>149</v>
+      </c>
+      <c r="E652" s="2">
+        <v>12</v>
+      </c>
+      <c r="F652" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>149</v>
+      </c>
+      <c r="E653" s="2">
+        <v>22</v>
+      </c>
+      <c r="F653" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>149</v>
+      </c>
+      <c r="E654" s="2">
+        <v>27</v>
+      </c>
+      <c r="F654" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>149</v>
+      </c>
+      <c r="E655" s="2">
+        <v>14</v>
+      </c>
+      <c r="F655" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>149</v>
+      </c>
+      <c r="E656" s="2">
+        <v>21</v>
+      </c>
+      <c r="F656" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>149</v>
+      </c>
+      <c r="E657" s="2">
+        <v>22</v>
+      </c>
+      <c r="F657" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>149</v>
+      </c>
+      <c r="E658" s="2">
+        <v>13</v>
+      </c>
+      <c r="F658" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>149</v>
+      </c>
+      <c r="E659" s="2">
+        <v>33</v>
+      </c>
+      <c r="F659" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>149</v>
+      </c>
+      <c r="E660" s="2">
+        <v>29</v>
+      </c>
+      <c r="F660" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>149</v>
+      </c>
+      <c r="E661" s="2">
+        <v>24</v>
+      </c>
+      <c r="F661" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>149</v>
+      </c>
+      <c r="E662" s="2">
+        <v>20</v>
+      </c>
+      <c r="F662" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>149</v>
+      </c>
+      <c r="E663" s="2">
+        <v>29</v>
+      </c>
+      <c r="F663" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>149</v>
+      </c>
+      <c r="E664" s="2">
+        <v>30</v>
+      </c>
+      <c r="F664" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>149</v>
+      </c>
+      <c r="E665" s="2">
+        <v>22</v>
+      </c>
+      <c r="F665" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>149</v>
+      </c>
+      <c r="E666" s="2">
+        <v>17</v>
+      </c>
+      <c r="F666" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>149</v>
+      </c>
+      <c r="E667" s="2">
+        <v>24</v>
+      </c>
+      <c r="F667" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>149</v>
+      </c>
+      <c r="E668" s="2">
+        <v>9</v>
+      </c>
+      <c r="F668" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>149</v>
+      </c>
+      <c r="E669" s="2">
+        <v>33</v>
+      </c>
+      <c r="F669" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>149</v>
+      </c>
+      <c r="E670" s="2">
+        <v>26</v>
+      </c>
+      <c r="F670" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>149</v>
+      </c>
+      <c r="E671" s="2">
+        <v>15</v>
+      </c>
+      <c r="F671" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>149</v>
+      </c>
+      <c r="E672" s="2">
+        <v>13</v>
+      </c>
+      <c r="F672" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>149</v>
+      </c>
+      <c r="E673" s="2">
+        <v>9</v>
+      </c>
+      <c r="F673" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>149</v>
+      </c>
+      <c r="E674" s="2">
+        <v>11</v>
+      </c>
+      <c r="F674" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>149</v>
+      </c>
+      <c r="E675" s="2">
+        <v>32</v>
+      </c>
+      <c r="F675" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>149</v>
+      </c>
+      <c r="E676" s="2">
+        <v>18</v>
+      </c>
+      <c r="F676" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>149</v>
+      </c>
+      <c r="E677" s="2">
+        <v>23</v>
+      </c>
+      <c r="F677" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>149</v>
+      </c>
+      <c r="E678" s="2">
+        <v>32</v>
+      </c>
+      <c r="F678" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>149</v>
+      </c>
+      <c r="E679" s="2">
+        <v>32</v>
+      </c>
+      <c r="F679" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>149</v>
+      </c>
+      <c r="E680" s="2">
+        <v>32</v>
+      </c>
+      <c r="F680" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>149</v>
+      </c>
+      <c r="E681" s="2">
+        <v>24</v>
+      </c>
+      <c r="F681" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>149</v>
+      </c>
+      <c r="E682" s="2">
+        <v>30</v>
+      </c>
+      <c r="F682" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>149</v>
+      </c>
+      <c r="E683" s="2">
+        <v>29</v>
+      </c>
+      <c r="F683" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>149</v>
+      </c>
+      <c r="E684" s="2">
+        <v>14</v>
+      </c>
+      <c r="F684" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>149</v>
+      </c>
+      <c r="E685" s="2">
+        <v>20</v>
+      </c>
+      <c r="F685" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>149</v>
+      </c>
+      <c r="E686" s="2">
+        <v>20</v>
+      </c>
+      <c r="F686" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>149</v>
+      </c>
+      <c r="E687" s="2">
+        <v>22</v>
+      </c>
+      <c r="F687" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>149</v>
+      </c>
+      <c r="E688" s="2">
+        <v>10</v>
+      </c>
+      <c r="F688" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>149</v>
+      </c>
+      <c r="E689" s="2">
+        <v>24</v>
+      </c>
+      <c r="F689" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>149</v>
+      </c>
+      <c r="E690" s="2">
+        <v>11</v>
+      </c>
+      <c r="F690" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>149</v>
+      </c>
+      <c r="E691" s="2">
+        <v>14</v>
+      </c>
+      <c r="F691" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>149</v>
+      </c>
+      <c r="E692" s="2">
+        <v>29</v>
+      </c>
+      <c r="F692" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>149</v>
+      </c>
+      <c r="E693" s="2">
+        <v>27</v>
+      </c>
+      <c r="F693" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>149</v>
+      </c>
+      <c r="E694" s="2">
+        <v>20</v>
+      </c>
+      <c r="F694" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>149</v>
+      </c>
+      <c r="E695" s="2">
+        <v>18</v>
+      </c>
+      <c r="F695" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>149</v>
+      </c>
+      <c r="E696" s="2">
+        <v>25</v>
+      </c>
+      <c r="F696" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>149</v>
+      </c>
+      <c r="E697" s="2">
+        <v>13</v>
+      </c>
+      <c r="F697" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>149</v>
+      </c>
+      <c r="E698" s="2">
+        <v>31</v>
+      </c>
+      <c r="F698" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>149</v>
+      </c>
+      <c r="E699" s="2">
+        <v>32</v>
+      </c>
+      <c r="F699" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>149</v>
+      </c>
+      <c r="E700" s="2">
+        <v>20</v>
+      </c>
+      <c r="F700" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>149</v>
+      </c>
+      <c r="E701" s="2">
+        <v>22</v>
+      </c>
+      <c r="F701" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>149</v>
+      </c>
+      <c r="E702" s="2">
+        <v>23</v>
+      </c>
+      <c r="F702" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>149</v>
+      </c>
+      <c r="E703" s="2">
+        <v>13</v>
+      </c>
+      <c r="F703" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>149</v>
+      </c>
+      <c r="E704" s="2">
+        <v>33</v>
+      </c>
+      <c r="F704" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>149</v>
+      </c>
+      <c r="E705" s="2">
+        <v>12</v>
+      </c>
+      <c r="F705" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>149</v>
+      </c>
+      <c r="E706" s="2">
+        <v>27</v>
+      </c>
+      <c r="F706" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>149</v>
+      </c>
+      <c r="E707" s="2">
+        <v>13</v>
+      </c>
+      <c r="F707" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>149</v>
+      </c>
+      <c r="E708" s="2">
+        <v>15</v>
+      </c>
+      <c r="F708" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>149</v>
+      </c>
+      <c r="E709" s="2">
+        <v>10</v>
+      </c>
+      <c r="F709" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>149</v>
+      </c>
+      <c r="E710" s="2">
+        <v>18</v>
+      </c>
+      <c r="F710" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>149</v>
+      </c>
+      <c r="E711" s="2">
+        <v>13</v>
+      </c>
+      <c r="F711" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>149</v>
+      </c>
+      <c r="E712" s="2">
+        <v>27</v>
+      </c>
+      <c r="F712" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>149</v>
+      </c>
+      <c r="E713" s="2">
+        <v>9</v>
+      </c>
+      <c r="F713" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>149</v>
+      </c>
+      <c r="E714" s="2">
+        <v>11</v>
+      </c>
+      <c r="F714" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>149</v>
+      </c>
+      <c r="E715" s="2">
+        <v>33</v>
+      </c>
+      <c r="F715" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>149</v>
+      </c>
+      <c r="E716" s="2">
+        <v>20</v>
+      </c>
+      <c r="F716" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>149</v>
+      </c>
+      <c r="E717" s="2">
+        <v>23</v>
+      </c>
+      <c r="F717" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>149</v>
+      </c>
+      <c r="E718" s="2">
+        <v>16</v>
+      </c>
+      <c r="F718" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>149</v>
+      </c>
+      <c r="E719" s="2">
+        <v>25</v>
+      </c>
+      <c r="F719" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>149</v>
+      </c>
+      <c r="E720" s="2">
+        <v>20</v>
+      </c>
+      <c r="F720" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>149</v>
+      </c>
+      <c r="E721" s="2">
+        <v>23</v>
+      </c>
+      <c r="F721" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>149</v>
+      </c>
+      <c r="E722" s="2">
+        <v>16</v>
+      </c>
+      <c r="F722" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>149</v>
+      </c>
+      <c r="E723" s="2">
+        <v>32</v>
+      </c>
+      <c r="F723" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>149</v>
+      </c>
+      <c r="E724" s="2">
+        <v>28</v>
+      </c>
+      <c r="F724" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>149</v>
+      </c>
+      <c r="E725" s="2">
+        <v>13</v>
+      </c>
+      <c r="F725" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>149</v>
+      </c>
+      <c r="E726" s="2">
+        <v>27</v>
+      </c>
+      <c r="F726" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>149</v>
+      </c>
+      <c r="E727" s="2">
+        <v>26</v>
+      </c>
+      <c r="F727" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>149</v>
+      </c>
+      <c r="E728" s="2">
+        <v>30</v>
+      </c>
+      <c r="F728" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>149</v>
+      </c>
+      <c r="E729" s="2">
+        <v>18</v>
+      </c>
+      <c r="F729" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>149</v>
+      </c>
+      <c r="E730" s="2">
+        <v>18</v>
+      </c>
+      <c r="F730" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>149</v>
+      </c>
+      <c r="E731" s="2">
+        <v>19</v>
+      </c>
+      <c r="F731" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>149</v>
+      </c>
+      <c r="E732" s="2">
+        <v>10</v>
+      </c>
+      <c r="F732" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>149</v>
+      </c>
+      <c r="E733" s="2">
+        <v>11</v>
+      </c>
+      <c r="F733" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>149</v>
+      </c>
+      <c r="E734" s="2">
+        <v>11</v>
+      </c>
+      <c r="F734" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>149</v>
+      </c>
+      <c r="E735" s="2">
+        <v>13</v>
+      </c>
+      <c r="F735" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>149</v>
+      </c>
+      <c r="E736" s="2">
+        <v>26</v>
+      </c>
+      <c r="F736" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>149</v>
+      </c>
+      <c r="E737" s="2">
+        <v>25</v>
+      </c>
+      <c r="F737" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>149</v>
+      </c>
+      <c r="E738" s="2">
+        <v>31</v>
+      </c>
+      <c r="F738" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>149</v>
+      </c>
+      <c r="E739" s="2">
+        <v>17</v>
+      </c>
+      <c r="F739" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>149</v>
+      </c>
+      <c r="E740" s="2">
+        <v>12</v>
+      </c>
+      <c r="F740" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>149</v>
+      </c>
+      <c r="E741" s="2">
+        <v>21</v>
+      </c>
+      <c r="F741" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>149</v>
+      </c>
+      <c r="E742" s="2">
+        <v>13</v>
+      </c>
+      <c r="F742" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>149</v>
+      </c>
+      <c r="E743" s="2">
+        <v>9</v>
+      </c>
+      <c r="F743" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>149</v>
+      </c>
+      <c r="E744" s="2">
+        <v>11</v>
+      </c>
+      <c r="F744" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>149</v>
+      </c>
+      <c r="E745" s="2">
+        <v>19</v>
+      </c>
+      <c r="F745" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>149</v>
+      </c>
+      <c r="E746" s="2">
+        <v>18</v>
+      </c>
+      <c r="F746" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>149</v>
+      </c>
+      <c r="E747" s="2">
+        <v>21</v>
+      </c>
+      <c r="F747" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>149</v>
+      </c>
+      <c r="E748" s="2">
+        <v>32</v>
+      </c>
+      <c r="F748" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>149</v>
+      </c>
+      <c r="E749" s="2">
+        <v>27</v>
+      </c>
+      <c r="F749" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>149</v>
+      </c>
+      <c r="E750" s="2">
+        <v>25</v>
+      </c>
+      <c r="F750" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>149</v>
+      </c>
+      <c r="E751" s="2">
+        <v>12</v>
+      </c>
+      <c r="F751" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>149</v>
+      </c>
+      <c r="E752" s="2">
+        <v>28</v>
+      </c>
+      <c r="F752" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>149</v>
+      </c>
+      <c r="E753" s="2">
+        <v>15</v>
+      </c>
+      <c r="F753" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>149</v>
+      </c>
+      <c r="E754" s="2">
+        <v>21</v>
+      </c>
+      <c r="F754" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>149</v>
+      </c>
+      <c r="E755" s="2">
+        <v>12</v>
+      </c>
+      <c r="F755" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>149</v>
+      </c>
+      <c r="E756" s="2">
+        <v>18</v>
+      </c>
+      <c r="F756" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>149</v>
+      </c>
+      <c r="E757" s="2">
+        <v>20</v>
+      </c>
+      <c r="F757" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>149</v>
+      </c>
+      <c r="E758" s="2">
+        <v>21</v>
+      </c>
+      <c r="F758" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>149</v>
+      </c>
+      <c r="E759" s="2">
+        <v>10</v>
+      </c>
+      <c r="F759" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>149</v>
+      </c>
+      <c r="E760" s="2">
+        <v>9</v>
+      </c>
+      <c r="F760" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>149</v>
+      </c>
+      <c r="E761" s="2">
+        <v>17</v>
+      </c>
+      <c r="F761" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>149</v>
+      </c>
+      <c r="E762" s="2">
+        <v>13</v>
+      </c>
+      <c r="F762" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>149</v>
+      </c>
+      <c r="E763" s="2">
+        <v>10</v>
+      </c>
+      <c r="F763" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>149</v>
+      </c>
+      <c r="E764" s="2">
+        <v>32</v>
+      </c>
+      <c r="F764" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>149</v>
+      </c>
+      <c r="E765" s="2">
+        <v>29</v>
+      </c>
+      <c r="F765" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>149</v>
+      </c>
+      <c r="E766" s="2">
+        <v>31</v>
+      </c>
+      <c r="F766" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>149</v>
+      </c>
+      <c r="E767" s="2">
+        <v>29</v>
+      </c>
+      <c r="F767" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>149</v>
+      </c>
+      <c r="E768" s="2">
+        <v>27</v>
+      </c>
+      <c r="F768" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>149</v>
+      </c>
+      <c r="E769" s="2">
+        <v>31</v>
+      </c>
+      <c r="F769" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>149</v>
+      </c>
+      <c r="E770" s="2">
+        <v>10</v>
+      </c>
+      <c r="F770" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>149</v>
+      </c>
+      <c r="E771" s="2">
+        <v>33</v>
+      </c>
+      <c r="F771" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>149</v>
+      </c>
+      <c r="E772" s="2">
+        <v>25</v>
+      </c>
+      <c r="F772" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>149</v>
+      </c>
+      <c r="E773" s="2">
+        <v>26</v>
+      </c>
+      <c r="F773" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>149</v>
+      </c>
+      <c r="E774" s="2">
+        <v>20</v>
+      </c>
+      <c r="F774" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>149</v>
+      </c>
+      <c r="E775" s="2">
+        <v>18</v>
+      </c>
+      <c r="F775" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>149</v>
+      </c>
+      <c r="E776" s="2">
+        <v>11</v>
+      </c>
+      <c r="F776" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>149</v>
+      </c>
+      <c r="E777" s="2">
+        <v>25</v>
+      </c>
+      <c r="F777" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>149</v>
+      </c>
+      <c r="E778" s="2">
+        <v>10</v>
+      </c>
+      <c r="F778" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>149</v>
+      </c>
+      <c r="E779" s="2">
+        <v>19</v>
+      </c>
+      <c r="F779" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>149</v>
+      </c>
+      <c r="E780" s="2">
+        <v>12</v>
+      </c>
+      <c r="F780" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>149</v>
+      </c>
+      <c r="E781" s="2">
+        <v>31</v>
+      </c>
+      <c r="F781" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>149</v>
+      </c>
+      <c r="E782" s="2">
+        <v>22</v>
+      </c>
+      <c r="F782" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>149</v>
+      </c>
+      <c r="E783" s="2">
+        <v>30</v>
+      </c>
+      <c r="F783" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>149</v>
+      </c>
+      <c r="E784" s="2">
+        <v>28</v>
+      </c>
+      <c r="F784" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>149</v>
+      </c>
+      <c r="E785" s="2">
+        <v>31</v>
+      </c>
+      <c r="F785" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>149</v>
+      </c>
+      <c r="E786" s="2">
+        <v>24</v>
+      </c>
+      <c r="F786" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>149</v>
+      </c>
+      <c r="E787" s="2">
+        <v>18</v>
+      </c>
+      <c r="F787" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>149</v>
+      </c>
+      <c r="E788" s="2">
+        <v>24</v>
+      </c>
+      <c r="F788" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>149</v>
+      </c>
+      <c r="E789" s="2">
+        <v>25</v>
+      </c>
+      <c r="F789" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>149</v>
+      </c>
+      <c r="E790" s="2">
+        <v>31</v>
+      </c>
+      <c r="F790" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>149</v>
+      </c>
+      <c r="E791" s="2">
+        <v>19</v>
+      </c>
+      <c r="F791" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>149</v>
+      </c>
+      <c r="E792" s="2">
+        <v>14</v>
+      </c>
+      <c r="F792" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>149</v>
+      </c>
+      <c r="E793" s="2">
+        <v>10</v>
+      </c>
+      <c r="F793" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>149</v>
+      </c>
+      <c r="E794" s="2">
+        <v>32</v>
+      </c>
+      <c r="F794" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>149</v>
+      </c>
+      <c r="E795" s="2">
+        <v>18</v>
+      </c>
+      <c r="F795" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>149</v>
+      </c>
+      <c r="E796" s="2">
+        <v>14</v>
+      </c>
+      <c r="F796" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>149</v>
+      </c>
+      <c r="E797" s="2">
+        <v>14</v>
+      </c>
+      <c r="F797" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>149</v>
+      </c>
+      <c r="E798" s="2">
+        <v>14</v>
+      </c>
+      <c r="F798" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>149</v>
+      </c>
+      <c r="E799" s="2">
+        <v>16</v>
+      </c>
+      <c r="F799" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>149</v>
+      </c>
+      <c r="E800" s="2">
+        <v>33</v>
+      </c>
+      <c r="F800" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>149</v>
+      </c>
+      <c r="E801" s="2">
+        <v>16</v>
+      </c>
+      <c r="F801" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>149</v>
+      </c>
+      <c r="E802" s="2">
+        <v>13</v>
+      </c>
+      <c r="F802" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>149</v>
+      </c>
+      <c r="E803" s="2">
+        <v>26</v>
+      </c>
+      <c r="F803" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>149</v>
+      </c>
+      <c r="E804" s="2">
+        <v>12</v>
+      </c>
+      <c r="F804" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>149</v>
+      </c>
+      <c r="E805" s="2">
+        <v>12</v>
+      </c>
+      <c r="F805" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>149</v>
+      </c>
+      <c r="E806" s="2">
+        <v>16</v>
+      </c>
+      <c r="F806" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>149</v>
+      </c>
+      <c r="E807" s="2">
+        <v>15</v>
+      </c>
+      <c r="F807" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>149</v>
+      </c>
+      <c r="E808" s="2">
+        <v>16</v>
+      </c>
+      <c r="F808" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>149</v>
+      </c>
+      <c r="E809" s="2">
+        <v>32</v>
+      </c>
+      <c r="F809" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>149</v>
+      </c>
+      <c r="E810" s="2">
+        <v>19</v>
+      </c>
+      <c r="F810" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>149</v>
+      </c>
+      <c r="E811" s="2">
+        <v>15</v>
+      </c>
+      <c r="F811" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>149</v>
+      </c>
+      <c r="E812" s="2">
+        <v>10</v>
+      </c>
+      <c r="F812" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>149</v>
+      </c>
+      <c r="E813" s="2">
+        <v>22</v>
+      </c>
+      <c r="F813" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>149</v>
+      </c>
+      <c r="E814" s="2">
+        <v>29</v>
+      </c>
+      <c r="F814" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>149</v>
+      </c>
+      <c r="E815" s="2">
+        <v>31</v>
+      </c>
+      <c r="F815" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>149</v>
+      </c>
+      <c r="E816" s="2">
+        <v>20</v>
+      </c>
+      <c r="F816" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>149</v>
+      </c>
+      <c r="E817" s="2">
+        <v>21</v>
+      </c>
+      <c r="F817" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>149</v>
+      </c>
+      <c r="E818" s="2">
+        <v>26</v>
+      </c>
+      <c r="F818" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>149</v>
+      </c>
+      <c r="E819" s="2">
+        <v>23</v>
+      </c>
+      <c r="F819" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>149</v>
+      </c>
+      <c r="E820" s="2">
+        <v>11</v>
+      </c>
+      <c r="F820" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>149</v>
+      </c>
+      <c r="E821" s="2">
+        <v>33</v>
+      </c>
+      <c r="F821" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>149</v>
+      </c>
+      <c r="E822" s="2">
+        <v>17</v>
+      </c>
+      <c r="F822" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>149</v>
+      </c>
+      <c r="E823" s="2">
+        <v>23</v>
+      </c>
+      <c r="F823" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>149</v>
+      </c>
+      <c r="E824" s="2">
+        <v>11</v>
+      </c>
+      <c r="F824" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>149</v>
+      </c>
+      <c r="E825" s="2">
+        <v>22</v>
+      </c>
+      <c r="F825" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>149</v>
+      </c>
+      <c r="E826" s="2">
+        <v>29</v>
+      </c>
+      <c r="F826" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>149</v>
+      </c>
+      <c r="E827" s="2">
+        <v>23</v>
+      </c>
+      <c r="F827" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>149</v>
+      </c>
+      <c r="E828" s="2">
+        <v>24</v>
+      </c>
+      <c r="F828" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>149</v>
+      </c>
+      <c r="E829" s="2">
+        <v>26</v>
+      </c>
+      <c r="F829" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>149</v>
+      </c>
+      <c r="E830" s="2">
+        <v>23</v>
+      </c>
+      <c r="F830" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>149</v>
+      </c>
+      <c r="E831" s="2">
+        <v>26</v>
+      </c>
+      <c r="F831" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>149</v>
+      </c>
+      <c r="E832" s="2">
+        <v>28</v>
+      </c>
+      <c r="F832" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>149</v>
+      </c>
+      <c r="E833" s="2">
+        <v>25</v>
+      </c>
+      <c r="F833" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>149</v>
+      </c>
+      <c r="E834" s="2">
+        <v>23</v>
+      </c>
+      <c r="F834" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>149</v>
+      </c>
+      <c r="E835" s="2">
+        <v>15</v>
+      </c>
+      <c r="F835" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>149</v>
+      </c>
+      <c r="E836" s="2">
+        <v>19</v>
+      </c>
+      <c r="F836" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>149</v>
+      </c>
+      <c r="E837" s="2">
+        <v>30</v>
+      </c>
+      <c r="F837" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>149</v>
+      </c>
+      <c r="E838" s="2">
+        <v>9</v>
+      </c>
+      <c r="F838" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>149</v>
+      </c>
+      <c r="E839" s="2">
+        <v>33</v>
+      </c>
+      <c r="F839" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>149</v>
+      </c>
+      <c r="E840" s="2">
+        <v>26</v>
+      </c>
+      <c r="F840" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>149</v>
+      </c>
+      <c r="E841" s="2">
+        <v>23</v>
+      </c>
+      <c r="F841" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>149</v>
+      </c>
+      <c r="E842" s="2">
+        <v>14</v>
+      </c>
+      <c r="F842" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>149</v>
+      </c>
+      <c r="E843" s="2">
+        <v>15</v>
+      </c>
+      <c r="F843" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>149</v>
+      </c>
+      <c r="E844" s="2">
+        <v>13</v>
+      </c>
+      <c r="F844" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>149</v>
+      </c>
+      <c r="E845" s="2">
+        <v>22</v>
+      </c>
+      <c r="F845" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>149</v>
+      </c>
+      <c r="E846" s="2">
+        <v>26</v>
+      </c>
+      <c r="F846" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>149</v>
+      </c>
+      <c r="E847" s="2">
+        <v>13</v>
+      </c>
+      <c r="F847" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>149</v>
+      </c>
+      <c r="E848" s="2">
+        <v>19</v>
+      </c>
+      <c r="F848" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>149</v>
+      </c>
+      <c r="E849" s="2">
+        <v>30</v>
+      </c>
+      <c r="F849" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>149</v>
+      </c>
+      <c r="E850" s="2">
+        <v>12</v>
+      </c>
+      <c r="F850" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>149</v>
+      </c>
+      <c r="E851" s="2">
+        <v>28</v>
+      </c>
+      <c r="F851" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>149</v>
+      </c>
+      <c r="E852" s="2">
+        <v>32</v>
+      </c>
+      <c r="F852" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>149</v>
+      </c>
+      <c r="E853" s="2">
+        <v>14</v>
+      </c>
+      <c r="F853" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>149</v>
+      </c>
+      <c r="E854" s="2">
+        <v>22</v>
+      </c>
+      <c r="F854" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>149</v>
+      </c>
+      <c r="E855" s="2">
+        <v>15</v>
+      </c>
+      <c r="F855" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>149</v>
+      </c>
+      <c r="E856" s="2">
+        <v>28</v>
+      </c>
+      <c r="F856" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>149</v>
+      </c>
+      <c r="E857" s="2">
+        <v>33</v>
+      </c>
+      <c r="F857" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>149</v>
+      </c>
+      <c r="E858" s="2">
+        <v>24</v>
+      </c>
+      <c r="F858" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>149</v>
+      </c>
+      <c r="E859" s="2">
+        <v>23</v>
+      </c>
+      <c r="F859" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>149</v>
+      </c>
+      <c r="E860" s="2">
+        <v>10</v>
+      </c>
+      <c r="F860" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>149</v>
+      </c>
+      <c r="E861" s="2">
+        <v>33</v>
+      </c>
+      <c r="F861" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>149</v>
+      </c>
+      <c r="E862" s="2">
+        <v>16</v>
+      </c>
+      <c r="F862" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>149</v>
+      </c>
+      <c r="E863" s="2">
+        <v>33</v>
+      </c>
+      <c r="F863" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>149</v>
+      </c>
+      <c r="E864" s="2">
+        <v>18</v>
+      </c>
+      <c r="F864" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>149</v>
+      </c>
+      <c r="E865" s="2">
+        <v>29</v>
+      </c>
+      <c r="F865" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>149</v>
+      </c>
+      <c r="E866" s="2">
+        <v>33</v>
+      </c>
+      <c r="F866" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>149</v>
+      </c>
+      <c r="E867" s="2">
+        <v>28</v>
+      </c>
+      <c r="F867" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>149</v>
+      </c>
+      <c r="E868" s="2">
+        <v>14</v>
+      </c>
+      <c r="F868" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>149</v>
+      </c>
+      <c r="E869" s="2">
+        <v>13</v>
+      </c>
+      <c r="F869" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>149</v>
+      </c>
+      <c r="E870" s="2">
+        <v>11</v>
+      </c>
+      <c r="F870" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>149</v>
+      </c>
+      <c r="E871" s="2">
+        <v>31</v>
+      </c>
+      <c r="F871" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>149</v>
+      </c>
+      <c r="E872" s="2">
+        <v>30</v>
+      </c>
+      <c r="F872" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>149</v>
+      </c>
+      <c r="E873" s="2">
+        <v>27</v>
+      </c>
+      <c r="F873" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>149</v>
+      </c>
+      <c r="E874" s="2">
+        <v>14</v>
+      </c>
+      <c r="F874" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>149</v>
+      </c>
+      <c r="E875" s="2">
+        <v>20</v>
+      </c>
+      <c r="F875" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>149</v>
+      </c>
+      <c r="E876" s="2">
+        <v>9</v>
+      </c>
+      <c r="F876" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>149</v>
+      </c>
+      <c r="E877" s="2">
+        <v>31</v>
+      </c>
+      <c r="F877" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>149</v>
+      </c>
+      <c r="E878" s="2">
+        <v>9</v>
+      </c>
+      <c r="F878" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>149</v>
+      </c>
+      <c r="E879" s="2">
+        <v>30</v>
+      </c>
+      <c r="F879" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>149</v>
+      </c>
+      <c r="E880" s="2">
+        <v>23</v>
+      </c>
+      <c r="F880" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>149</v>
+      </c>
+      <c r="E881" s="2">
+        <v>9</v>
+      </c>
+      <c r="F881" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>149</v>
+      </c>
+      <c r="E882" s="2">
+        <v>14</v>
+      </c>
+      <c r="F882" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>149</v>
+      </c>
+      <c r="E883" s="2">
+        <v>29</v>
+      </c>
+      <c r="F883" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>149</v>
+      </c>
+      <c r="E884" s="2">
+        <v>27</v>
+      </c>
+      <c r="F884" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>149</v>
+      </c>
+      <c r="E885" s="2">
+        <v>30</v>
+      </c>
+      <c r="F885" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>149</v>
+      </c>
+      <c r="E886" s="2">
+        <v>25</v>
+      </c>
+      <c r="F886" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>149</v>
+      </c>
+      <c r="E887" s="2">
+        <v>24</v>
+      </c>
+      <c r="F887" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>149</v>
+      </c>
+      <c r="E888" s="2">
+        <v>10</v>
+      </c>
+      <c r="F888" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>149</v>
+      </c>
+      <c r="E889" s="2">
+        <v>22</v>
+      </c>
+      <c r="F889" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>149</v>
+      </c>
+      <c r="E890" s="2">
+        <v>28</v>
+      </c>
+      <c r="F890" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>149</v>
+      </c>
+      <c r="E891" s="2">
+        <v>12</v>
+      </c>
+      <c r="F891" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>149</v>
+      </c>
+      <c r="E892" s="2">
+        <v>31</v>
+      </c>
+      <c r="F892" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>149</v>
+      </c>
+      <c r="E893" s="2">
+        <v>10</v>
+      </c>
+      <c r="F893" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>149</v>
+      </c>
+      <c r="E894" s="2">
+        <v>32</v>
+      </c>
+      <c r="F894" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>149</v>
+      </c>
+      <c r="E895" s="2">
+        <v>15</v>
+      </c>
+      <c r="F895" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>149</v>
+      </c>
+      <c r="E896" s="2">
+        <v>21</v>
+      </c>
+      <c r="F896" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>149</v>
+      </c>
+      <c r="E897" s="2">
+        <v>27</v>
+      </c>
+      <c r="F897" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>149</v>
+      </c>
+      <c r="E898" s="2">
+        <v>12</v>
+      </c>
+      <c r="F898" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>149</v>
+      </c>
+      <c r="E899" s="2">
+        <v>9</v>
+      </c>
+      <c r="F899" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>149</v>
+      </c>
+      <c r="E900" s="2">
+        <v>14</v>
+      </c>
+      <c r="F900" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>149</v>
+      </c>
+      <c r="E901" s="2">
+        <v>12</v>
+      </c>
+      <c r="F901" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>149</v>
+      </c>
+      <c r="E902" s="2">
+        <v>23</v>
+      </c>
+      <c r="F902" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>149</v>
+      </c>
+      <c r="E903" s="2">
+        <v>19</v>
+      </c>
+      <c r="F903" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>149</v>
+      </c>
+      <c r="E904" s="2">
+        <v>31</v>
+      </c>
+      <c r="F904" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>149</v>
+      </c>
+      <c r="E905" s="2">
+        <v>11</v>
+      </c>
+      <c r="F905" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>149</v>
+      </c>
+      <c r="E906" s="2">
+        <v>17</v>
+      </c>
+      <c r="F906" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>149</v>
+      </c>
+      <c r="E907" s="2">
+        <v>14</v>
+      </c>
+      <c r="F907" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>149</v>
+      </c>
+      <c r="E908" s="2">
+        <v>25</v>
+      </c>
+      <c r="F908" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>149</v>
+      </c>
+      <c r="E909" s="2">
+        <v>16</v>
+      </c>
+      <c r="F909" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>149</v>
+      </c>
+      <c r="E910" s="2">
+        <v>14</v>
+      </c>
+      <c r="F910" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>149</v>
+      </c>
+      <c r="E911" s="2">
+        <v>12</v>
+      </c>
+      <c r="F911" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>149</v>
+      </c>
+      <c r="E912" s="2">
+        <v>22</v>
+      </c>
+      <c r="F912" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>149</v>
+      </c>
+      <c r="E913" s="2">
+        <v>11</v>
+      </c>
+      <c r="F913" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>149</v>
+      </c>
+      <c r="E914" s="2">
+        <v>27</v>
+      </c>
+      <c r="F914" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>149</v>
+      </c>
+      <c r="E915" s="2">
+        <v>11</v>
+      </c>
+      <c r="F915" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>149</v>
+      </c>
+      <c r="E916" s="2">
+        <v>26</v>
+      </c>
+      <c r="F916" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>149</v>
+      </c>
+      <c r="E917" s="2">
+        <v>20</v>
+      </c>
+      <c r="F917" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>149</v>
+      </c>
+      <c r="E918" s="2">
+        <v>33</v>
+      </c>
+      <c r="F918" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>149</v>
+      </c>
+      <c r="E919" s="2">
+        <v>30</v>
+      </c>
+      <c r="F919" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>149</v>
+      </c>
+      <c r="E920" s="2">
+        <v>21</v>
+      </c>
+      <c r="F920" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>149</v>
+      </c>
+      <c r="E921" s="2">
+        <v>21</v>
+      </c>
+      <c r="F921" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>149</v>
+      </c>
+      <c r="E922" s="2">
+        <v>17</v>
+      </c>
+      <c r="F922" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>149</v>
+      </c>
+      <c r="E923" s="2">
+        <v>23</v>
+      </c>
+      <c r="F923" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>149</v>
+      </c>
+      <c r="E924" s="2">
+        <v>13</v>
+      </c>
+      <c r="F924" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>149</v>
+      </c>
+      <c r="E925" s="2">
+        <v>13</v>
+      </c>
+      <c r="F925" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>149</v>
+      </c>
+      <c r="E926" s="2">
+        <v>28</v>
+      </c>
+      <c r="F926" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>149</v>
+      </c>
+      <c r="E927" s="2">
+        <v>18</v>
+      </c>
+      <c r="F927" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>149</v>
+      </c>
+      <c r="E928" s="2">
+        <v>10</v>
+      </c>
+      <c r="F928" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>149</v>
+      </c>
+      <c r="E929" s="2">
+        <v>10</v>
+      </c>
+      <c r="F929" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>149</v>
+      </c>
+      <c r="E930" s="2">
+        <v>32</v>
+      </c>
+      <c r="F930" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>149</v>
+      </c>
+      <c r="E931" s="2">
+        <v>24</v>
+      </c>
+      <c r="F931" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>149</v>
+      </c>
+      <c r="E932" s="2">
+        <v>24</v>
+      </c>
+      <c r="F932" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>149</v>
+      </c>
+      <c r="E933" s="2">
+        <v>26</v>
+      </c>
+      <c r="F933" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>149</v>
+      </c>
+      <c r="E934" s="2">
+        <v>20</v>
+      </c>
+      <c r="F934" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>149</v>
+      </c>
+      <c r="E935" s="2">
+        <v>19</v>
+      </c>
+      <c r="F935" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>149</v>
+      </c>
+      <c r="E936" s="2">
+        <v>32</v>
+      </c>
+      <c r="F936" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>149</v>
+      </c>
+      <c r="E937" s="2">
+        <v>22</v>
+      </c>
+      <c r="F937" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>149</v>
+      </c>
+      <c r="E938" s="2">
+        <v>21</v>
+      </c>
+      <c r="F938" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>149</v>
+      </c>
+      <c r="E939" s="2">
+        <v>13</v>
+      </c>
+      <c r="F939" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>149</v>
+      </c>
+      <c r="E940" s="2">
+        <v>26</v>
+      </c>
+      <c r="F940" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>149</v>
+      </c>
+      <c r="E941" s="2">
+        <v>13</v>
+      </c>
+      <c r="F941" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>149</v>
+      </c>
+      <c r="E942" s="2">
+        <v>23</v>
+      </c>
+      <c r="F942" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>149</v>
+      </c>
+      <c r="E943" s="2">
+        <v>20</v>
+      </c>
+      <c r="F943" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>149</v>
+      </c>
+      <c r="E944" s="2">
+        <v>31</v>
+      </c>
+      <c r="F944" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>149</v>
+      </c>
+      <c r="E945" s="2">
+        <v>18</v>
+      </c>
+      <c r="F945" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>149</v>
+      </c>
+      <c r="E946" s="2">
+        <v>21</v>
+      </c>
+      <c r="F946" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>149</v>
+      </c>
+      <c r="E947" s="2">
+        <v>28</v>
+      </c>
+      <c r="F947" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>149</v>
+      </c>
+      <c r="E948" s="2">
+        <v>30</v>
+      </c>
+      <c r="F948" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>149</v>
+      </c>
+      <c r="E949" s="2">
+        <v>20</v>
+      </c>
+      <c r="F949" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>149</v>
+      </c>
+      <c r="E950" s="2">
+        <v>14</v>
+      </c>
+      <c r="F950" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>149</v>
+      </c>
+      <c r="E951" s="2">
+        <v>16</v>
+      </c>
+      <c r="F951" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>149</v>
+      </c>
+      <c r="E952" s="2">
+        <v>17</v>
+      </c>
+      <c r="F952" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>149</v>
+      </c>
+      <c r="E953" s="2">
+        <v>21</v>
+      </c>
+      <c r="F953" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>149</v>
+      </c>
+      <c r="E954" s="2">
+        <v>28</v>
+      </c>
+      <c r="F954" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>149</v>
+      </c>
+      <c r="E955" s="2">
+        <v>33</v>
+      </c>
+      <c r="F955" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>149</v>
+      </c>
+      <c r="E956" s="2">
+        <v>20</v>
+      </c>
+      <c r="F956" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>149</v>
+      </c>
+      <c r="E957" s="2">
+        <v>12</v>
+      </c>
+      <c r="F957" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>149</v>
+      </c>
+      <c r="E958" s="2">
+        <v>10</v>
+      </c>
+      <c r="F958" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>149</v>
+      </c>
+      <c r="E959" s="2">
+        <v>30</v>
+      </c>
+      <c r="F959" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>149</v>
+      </c>
+      <c r="E960" s="2">
+        <v>12</v>
+      </c>
+      <c r="F960" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>149</v>
+      </c>
+      <c r="E961" s="2">
+        <v>19</v>
+      </c>
+      <c r="F961" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>149</v>
+      </c>
+      <c r="E962" s="2">
+        <v>31</v>
+      </c>
+      <c r="F962" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>149</v>
+      </c>
+      <c r="E963" s="2">
+        <v>19</v>
+      </c>
+      <c r="F963" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>149</v>
+      </c>
+      <c r="E964" s="2">
+        <v>25</v>
+      </c>
+      <c r="F964" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>149</v>
+      </c>
+      <c r="E965" s="2">
+        <v>20</v>
+      </c>
+      <c r="F965" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>149</v>
+      </c>
+      <c r="E966" s="2">
+        <v>19</v>
+      </c>
+      <c r="F966" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>149</v>
+      </c>
+      <c r="E967" s="2">
+        <v>12</v>
+      </c>
+      <c r="F967" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>149</v>
+      </c>
+      <c r="E968" s="2">
+        <v>32</v>
+      </c>
+      <c r="F968" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>149</v>
+      </c>
+      <c r="E969" s="2">
+        <v>10</v>
+      </c>
+      <c r="F969" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>149</v>
+      </c>
+      <c r="E970" s="2">
+        <v>31</v>
+      </c>
+      <c r="F970" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>149</v>
+      </c>
+      <c r="E971" s="2">
+        <v>11</v>
+      </c>
+      <c r="F971" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>149</v>
+      </c>
+      <c r="E972" s="2">
+        <v>22</v>
+      </c>
+      <c r="F972" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>149</v>
+      </c>
+      <c r="E973" s="2">
+        <v>28</v>
+      </c>
+      <c r="F973" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>149</v>
+      </c>
+      <c r="E974" s="2">
+        <v>26</v>
+      </c>
+      <c r="F974" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>149</v>
+      </c>
+      <c r="E975" s="2">
+        <v>29</v>
+      </c>
+      <c r="F975" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>149</v>
+      </c>
+      <c r="E976" s="2">
+        <v>22</v>
+      </c>
+      <c r="F976" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>149</v>
+      </c>
+      <c r="E977" s="2">
+        <v>19</v>
+      </c>
+      <c r="F977" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>149</v>
+      </c>
+      <c r="E978" s="2">
+        <v>33</v>
+      </c>
+      <c r="F978" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>149</v>
+      </c>
+      <c r="E979" s="2">
+        <v>17</v>
+      </c>
+      <c r="F979" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>149</v>
+      </c>
+      <c r="E980" s="2">
+        <v>15</v>
+      </c>
+      <c r="F980" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>149</v>
+      </c>
+      <c r="E981" s="2">
+        <v>13</v>
+      </c>
+      <c r="F981" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>149</v>
+      </c>
+      <c r="E982" s="2">
+        <v>20</v>
+      </c>
+      <c r="F982" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>149</v>
+      </c>
+      <c r="E983" s="2">
+        <v>29</v>
+      </c>
+      <c r="F983" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>149</v>
+      </c>
+      <c r="E984" s="2">
+        <v>24</v>
+      </c>
+      <c r="F984" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>149</v>
+      </c>
+      <c r="E985" s="2">
+        <v>14</v>
+      </c>
+      <c r="F985" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>149</v>
+      </c>
+      <c r="E986" s="2">
+        <v>16</v>
+      </c>
+      <c r="F986" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>149</v>
+      </c>
+      <c r="E987" s="2">
+        <v>21</v>
+      </c>
+      <c r="F987" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>149</v>
+      </c>
+      <c r="E988" s="2">
+        <v>32</v>
+      </c>
+      <c r="F988" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>149</v>
+      </c>
+      <c r="E989" s="2">
+        <v>12</v>
+      </c>
+      <c r="F989" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>149</v>
+      </c>
+      <c r="E990" s="2">
+        <v>26</v>
+      </c>
+      <c r="F990" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>149</v>
+      </c>
+      <c r="E991" s="2">
+        <v>9</v>
+      </c>
+      <c r="F991" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42451321-EAB9-4518-863A-D4C8532CBA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73093570-3815-4BE5-867C-D7A474FB073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,6 +2241,9 @@
         <v>36</v>
       </c>
     </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E140" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73093570-3815-4BE5-867C-D7A474FB073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315964F1-D749-4933-BE42-8988CB0A1282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="109">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>In column 'DP' of the extraction file, variable ID should be 'T-2' when the actual value is 'T-22'</t>
+  </si>
+  <si>
+    <t>There is already an existing extraction file for LIVEHTA Automation - Test_NonOncology_Automation_1 , please remove the previous upload and re-upload.</t>
+  </si>
+  <si>
+    <t>error_msg</t>
   </si>
 </sst>
 </file>
@@ -683,11 +689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +706,7 @@
     <col min="6" max="6" width="117.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -719,8 +725,11 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -733,8 +742,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -754,7 +766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -765,7 +777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -776,7 +788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -787,7 +799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -798,7 +810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -809,7 +821,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -820,7 +832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -831,7 +843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -842,7 +854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -853,7 +865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -864,7 +876,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -875,7 +887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315964F1-D749-4933-BE42-8988CB0A1282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A445880-DD2D-41DB-863E-49293D291391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="121">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -61,9 +61,6 @@
     <t>pop4</t>
   </si>
   <si>
-    <t>LIVEHTA Automation - Test_NonOncology_Automation_1 - 3/6/2023</t>
-  </si>
-  <si>
     <t>File_with_ValidData.xlsx</t>
   </si>
   <si>
@@ -362,6 +359,45 @@
   </si>
   <si>
     <t>error_msg</t>
+  </si>
+  <si>
+    <t>LIVEHTA Automation - Test_NonOncology_Automation_1</t>
+  </si>
+  <si>
+    <t>Publication ID 1 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 9 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 3 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 11 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 10 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 2 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 8 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 7 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 4 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 6 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>Publication ID 5 has already been uploaded, please check and re-upload</t>
+  </si>
+  <si>
+    <t>pop5</t>
   </si>
 </sst>
 </file>
@@ -689,17 +725,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="96.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -720,13 +756,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -734,16 +770,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -751,19 +787,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -774,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -785,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -796,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -807,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -818,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -829,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -840,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -851,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -862,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -873,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -884,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -895,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -906,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -928,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -939,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -950,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -961,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -972,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -994,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1005,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1016,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1027,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1038,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1049,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1060,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1071,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1093,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1104,19 +1140,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
         <v>101</v>
       </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
       <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1127,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1138,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1160,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1171,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1182,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1215,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1237,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1248,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1259,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1270,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1281,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1292,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1314,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1325,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1336,19 +1372,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
         <v>103</v>
-      </c>
-      <c r="D57" t="s">
-        <v>104</v>
       </c>
       <c r="E57" s="2">
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1359,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1381,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1403,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1414,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1425,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1436,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1447,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1480,7 +1516,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1491,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1502,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1513,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1535,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1546,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1557,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1579,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1590,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1601,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,7 +1659,7 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -1634,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -1667,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -1678,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -1689,7 +1725,7 @@
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -1700,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -1711,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -1722,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -1755,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -1766,7 +1802,7 @@
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -1788,7 +1824,7 @@
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -1799,7 +1835,7 @@
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -1810,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -1821,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,7 +1868,7 @@
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -1854,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -1865,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -1887,7 +1923,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -1898,7 +1934,7 @@
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -1920,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -1931,7 +1967,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -1953,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,7 +2000,7 @@
         <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -1975,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -1997,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2008,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2019,7 +2055,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2041,7 +2077,7 @@
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2063,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2074,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2085,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2096,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -2107,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -2118,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -2140,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -2151,7 +2187,7 @@
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -2162,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -2173,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -2184,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -2195,7 +2231,7 @@
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -2206,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -2217,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -2228,7 +2264,7 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -2239,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -2250,11 +2286,141 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>120</v>
+      </c>
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3</v>
+      </c>
+      <c r="F141" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>120</v>
+      </c>
+      <c r="E142" s="2">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>120</v>
+      </c>
+      <c r="E143" s="2">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" s="2">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>120</v>
+      </c>
+      <c r="E145" s="2">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" s="2">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>120</v>
+      </c>
+      <c r="E147" s="2">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" s="2">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>120</v>
+      </c>
+      <c r="E149" s="2">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" s="2">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" s="2">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A445880-DD2D-41DB-863E-49293D291391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC0654-4E6B-4280-9DB0-393F84894B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>Column ST-12 mapping key '_CustomData' is not supported. Only "EndpointResult_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
   </si>
   <si>
-    <t>Column C-2 mapping key 'Ext_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
-  </si>
-  <si>
     <t>Column SE-3 mapping key 'A_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "ExtractionEndpointInfo_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>Additional column found for 'QIIII', please re-check your template and upload again</t>
   </si>
   <si>
-    <t>In column 'CX' of the extraction file, variable label should be 'Timepoint unit' when the actual value is 'Invalid unit'</t>
-  </si>
-  <si>
     <t>Additional column found for 'T-2!@#$%', please re-check your template and upload again</t>
   </si>
   <si>
@@ -298,42 +292,21 @@
     <t>Additional column found for 'E-111', please re-check your template and upload again</t>
   </si>
   <si>
-    <t>In column 'BK' of the extraction file, variable label should be 'p-value' when the actual value is 'pvalue'</t>
-  </si>
-  <si>
     <t>Additional column found for 'QI-14', please re-check your template and upload again</t>
   </si>
   <si>
     <t>The extraction file is missing 'Add TTE Endpoint Custom Variables' and 'ST-12' as compared to the modified extraction template</t>
   </si>
   <si>
-    <t>In column 'BX' of the extraction file, variable label should be 'Add Endpoint overall results custom columns' when the actual value is 'Add Endpoint overall results custom colIvalidumns'</t>
-  </si>
-  <si>
     <t>Duplicate column found for QA-3, please re-check your template and upload again.</t>
   </si>
   <si>
-    <t>In column 'BR' of the extraction file, variable label should be 'Timepoint' when the actual value is 'Timepointssss'</t>
-  </si>
-  <si>
     <t>The extraction file is missing 'Add Endpoint overall results custom columns' and 'SO-3' as compared to the modified extraction template</t>
   </si>
   <si>
-    <t>In column 'CE' of the extraction file, variable ID should be 'RC-7' when the actual value is 'R-C-7'</t>
-  </si>
-  <si>
     <t>In column 'W' of the extraction file, variable label should be 'P-3' &amp; 'Add Variables for Treatment Characteristics' when the actual value is 'P-31' &amp; 'Invalid Add Variables for Treatment Characteristics'</t>
   </si>
   <si>
-    <t>In column 'AR' of the extraction file, variable label should be 'Add Endpoint Description custom columns' when the actual value is 'Invalid Col Name'</t>
-  </si>
-  <si>
-    <t>In column 'BU' of the extraction file, variable ID should be 'RI-5' when the actual value is 'RI-58'</t>
-  </si>
-  <si>
-    <t>In column 'BB' of the extraction file, variable label should be 'Number of events' when the actual value is '% of patients experiencing event'</t>
-  </si>
-  <si>
     <t>The extraction file is missing 'Safety N' and 'E-1' as compared to the modified extraction template</t>
   </si>
   <si>
@@ -349,12 +322,6 @@
     <t>\Testdata\Non_Oncology\Templates\ImportPublications\Extraction sheet - Invalid Data.xlsx</t>
   </si>
   <si>
-    <t>In column 'DK' of the extraction file, variable ID should be 'ST-9' when the actual value is '9-ST'</t>
-  </si>
-  <si>
-    <t>In column 'DP' of the extraction file, variable ID should be 'T-2' when the actual value is 'T-22'</t>
-  </si>
-  <si>
     <t>There is already an existing extraction file for LIVEHTA Automation - Test_NonOncology_Automation_1 , please remove the previous upload and re-upload.</t>
   </si>
   <si>
@@ -398,6 +365,39 @@
   </si>
   <si>
     <t>pop5</t>
+  </si>
+  <si>
+    <t>Column C-4 mapping key 'Ext_CustomData' is not supported. Only "Arm_" is supported for arm-related data or "Extraction_" is supported for extraction-related data. Please modify accordingly and re-upload.</t>
+  </si>
+  <si>
+    <t>In column 'AT' of the extraction file, variable label should be 'Add Endpoint Description custom columns' when the actual value is 'Invalid Col Name'</t>
+  </si>
+  <si>
+    <t>In column 'BD' of the extraction file, variable label should be 'Number of events' when the actual value is '% of patients experiencing event'</t>
+  </si>
+  <si>
+    <t>In column 'BM' of the extraction file, variable label should be 'p-value' when the actual value is 'pvalue'</t>
+  </si>
+  <si>
+    <t>In column 'BT' of the extraction file, variable label should be 'Timepoint' when the actual value is 'Timepointssss'</t>
+  </si>
+  <si>
+    <t>In column 'BW' of the extraction file, variable ID should be 'RI-5' when the actual value is 'RI-58'</t>
+  </si>
+  <si>
+    <t>In column 'BZ' of the extraction file, variable label should be 'Add Endpoint overall results custom columns' when the actual value is 'Add Endpoint overall results custom colIvalidumns'</t>
+  </si>
+  <si>
+    <t>In column 'CG' of the extraction file, variable ID should be 'RC-7' when the actual value is 'R-C-7'</t>
+  </si>
+  <si>
+    <t>In column 'CZ' of the extraction file, variable label should be 'Timepoint unit' when the actual value is 'Invalid unit'</t>
+  </si>
+  <si>
+    <t>In column 'DM' of the extraction file, variable ID should be 'ST-9' when the actual value is '9-ST'</t>
+  </si>
+  <si>
+    <t>In column 'DR' of the extraction file, variable ID should be 'T-2' when the actual value is 'T-22'</t>
   </si>
 </sst>
 </file>
@@ -727,9 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -787,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,19 +1140,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2">
         <v>26</v>
@@ -2294,10 +2294,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2309,117 +2309,117 @@
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E142" s="2">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E143" s="2">
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E144" s="2">
         <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E145" s="2">
         <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E146" s="2">
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E147" s="2">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E148" s="2">
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E149" s="2">
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E150" s="2">
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E151" s="2">
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC0654-4E6B-4280-9DB0-393F84894B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA6650F-7B6E-42FC-9402-4F7B421C6F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>Main Message 'NR' is not supported</t>
   </si>
   <si>
-    <t>Sub-population '' is not supported</t>
-  </si>
-  <si>
     <t>Study Population 'NR' is not supported</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>In column 'X' of the extraction file, variable ID should be 'P-4' when the actual value is 'P-428'</t>
   </si>
   <si>
-    <t>In column 'Q' of the extraction file, variable label should be 'Prior Therapy Group' when the actual value is 'Prior Therapy Group Invalid'</t>
-  </si>
-  <si>
     <t>In column 'S' of the extraction file, variable label should be 'Add Variables for Study Characteristics' when the actual value is 'Invalid'</t>
   </si>
   <si>
@@ -398,6 +392,12 @@
   </si>
   <si>
     <t>In column 'DR' of the extraction file, variable ID should be 'T-2' when the actual value is 'T-22'</t>
+  </si>
+  <si>
+    <t>In column 'Q' of the extraction file, variable label should be 'Population filter 2' when the actual value is 'Prior Therapy Group Invalid'</t>
+  </si>
+  <si>
+    <t>Population filter 1 '' is not supported</t>
   </si>
 </sst>
 </file>
@@ -727,9 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" activeCellId="2" sqref="F117 F104 F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -787,19 +787,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,19 +1140,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1273,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1295,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,19 +1372,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2">
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1527,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1560,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1615,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -1736,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -1868,7 +1868,7 @@
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -1967,7 +1967,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2022,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2121,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -2165,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -2198,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -2294,10 +2294,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2309,117 +2309,117 @@
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E142" s="2">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E143" s="2">
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E144" s="2">
         <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E145" s="2">
         <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E146" s="2">
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E147" s="2">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E148" s="2">
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E149" s="2">
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E150" s="2">
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E151" s="2">
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA6650F-7B6E-42FC-9402-4F7B421C6F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069B5E0-D8BA-43FC-B6DC-0786966FA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Number of Arms '0' is not supported</t>
   </si>
   <si>
-    <t>Prior Therapy Group 'NA' is not supported</t>
-  </si>
-  <si>
     <t>% of patients experiencing event '' is not supported</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>Population filter 1 '' is not supported</t>
+  </si>
+  <si>
+    <t>Population filter 2 'NA' is not supported</t>
   </si>
 </sst>
 </file>
@@ -727,9 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" activeCellId="2" sqref="F117 F104 F72"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -787,19 +787,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -920,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1019,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,19 +1140,19 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
         <v>89</v>
       </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
       <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1218,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1273,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1295,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1361,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1372,19 +1372,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
         <v>91</v>
-      </c>
-      <c r="D57" t="s">
-        <v>92</v>
       </c>
       <c r="E57" s="2">
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1527,7 +1527,7 @@
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1615,7 +1615,7 @@
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1648,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -1714,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -1736,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
         <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -1868,7 +1868,7 @@
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -1967,7 +1967,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2022,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2033,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2121,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
         <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -2165,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,7 +2176,7 @@
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -2198,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -2209,7 +2209,7 @@
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -2294,10 +2294,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2309,117 +2309,117 @@
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E142" s="2">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E143" s="2">
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E144" s="2">
         <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E145" s="2">
         <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E146" s="2">
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E147" s="2">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E148" s="2">
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E149" s="2">
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E150" s="2">
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E151" s="2">
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7069B5E0-D8BA-43FC-B6DC-0786966FA233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F610183-5787-460D-BD65-4D4911BB1626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Population_name</t>
-  </si>
-  <si>
     <t>pop1</t>
   </si>
   <si>
@@ -398,6 +395,9 @@
   </si>
   <si>
     <t>Population filter 2 'NA' is not supported</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -727,9 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -756,380 +756,380 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2">
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2">
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1137,231 +1137,231 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
       <c r="E36" s="2">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="2">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39" s="2">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="2">
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2">
         <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E43" s="2">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="2">
         <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="2">
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" s="2">
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="2">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2">
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" s="2">
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2">
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2">
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2">
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2">
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2">
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,924 +1369,924 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
         <v>90</v>
-      </c>
-      <c r="D57" t="s">
-        <v>91</v>
       </c>
       <c r="E57" s="2">
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="2">
         <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="2">
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="2">
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" s="2">
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" s="2">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2">
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="2">
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2">
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="2">
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" s="2">
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2">
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70" s="2">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" s="2">
         <v>13</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="2">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" s="2">
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="2">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" s="2">
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" s="2">
         <v>22</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" s="2">
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78" s="2">
         <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" s="2">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" s="2">
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E81" s="2">
         <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2">
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83" s="2">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" s="2">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E85" s="2">
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" s="2">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" s="2">
         <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" s="2">
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E89" s="2">
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E90" s="2">
         <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E91" s="2">
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E92" s="2">
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" s="2">
         <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E94" s="2">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E95" s="2">
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E96" s="2">
         <v>18</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E97" s="2">
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E98" s="2">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E99" s="2">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100" s="2">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E101" s="2">
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" s="2">
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" s="2">
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E104" s="2">
         <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E105" s="2">
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E106" s="2">
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E107" s="2">
         <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E108" s="2">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" s="2">
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E110" s="2">
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111" s="2">
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E112" s="2">
         <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113" s="2">
         <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E114" s="2">
         <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E115" s="2">
         <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116" s="2">
         <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E117" s="2">
         <v>16</v>
       </c>
       <c r="F117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E118" s="2">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119" s="2">
         <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E120" s="2">
         <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E121" s="2">
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E122" s="2">
         <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E123" s="2">
         <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" s="2">
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E125" s="2">
         <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" s="2">
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E127" s="2">
         <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E128" s="2">
         <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E129" s="2">
         <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130" s="2">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E131" s="2">
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E132" s="2">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E133" s="2">
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E134" s="2">
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" s="2">
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136" s="2">
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E137" s="2">
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E138" s="2">
         <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E139" s="2">
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -2294,132 +2294,132 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B141" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
         <v>8</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
       </c>
       <c r="E141" s="2">
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E142" s="2">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E143" s="2">
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E144" s="2">
         <v>13</v>
       </c>
       <c r="F144" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E145" s="2">
         <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E146" s="2">
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E147" s="2">
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E148" s="2">
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E149" s="2">
         <v>6</v>
       </c>
       <c r="F149" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E150" s="2">
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E151" s="2">
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAA1071-97F1-4D78-9F8B-B43F76C5A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9076579F-AC4D-4DED-9827-051A7688EA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="131">
   <si>
     <t>Expected_File_names</t>
   </si>
@@ -413,6 +413,21 @@
   </si>
   <si>
     <t>Non-Oncology</t>
+  </si>
+  <si>
+    <t>\Testdata\Non_Oncology\Templates\ImportPublications\Extraction sheet - Duplicate_PublicationID.xlsx</t>
+  </si>
+  <si>
+    <t>Extraction sheet - Duplicate_PublicationID.xlsx</t>
+  </si>
+  <si>
+    <t>Primary Publication “Feagan_NEJM_2013” is also present in Related Publications</t>
+  </si>
+  <si>
+    <t>Primary Publication “Motoya_PLOS_2019” is also present in Related Publications</t>
+  </si>
+  <si>
+    <t>pop7</t>
   </si>
 </sst>
 </file>
@@ -740,11 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +767,7 @@
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="48.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="96.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="117.33203125" bestFit="1" customWidth="1"/>
@@ -2309,23 +2324,20 @@
       <c r="A141" t="s">
         <v>103</v>
       </c>
-      <c r="B141" t="s">
-        <v>125</v>
-      </c>
       <c r="C141" t="s">
         <v>91</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="F141" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -2333,10 +2345,10 @@
         <v>103</v>
       </c>
       <c r="F142" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -2344,10 +2356,10 @@
         <v>103</v>
       </c>
       <c r="F143" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G143" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -2355,103 +2367,162 @@
         <v>103</v>
       </c>
       <c r="F144" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G144" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>103</v>
-      </c>
-      <c r="F145" s="2">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>96</v>
-      </c>
+      <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>103</v>
+        <v>120</v>
+      </c>
+      <c r="B146" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
       </c>
       <c r="F146" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G146" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F147" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F148" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G148" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F149" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F150" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F151" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>120</v>
+      </c>
+      <c r="F152" s="2">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>120</v>
       </c>
-      <c r="B153" t="s">
+      <c r="F153" s="2">
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>120</v>
+      </c>
+      <c r="F154" s="2">
+        <v>6</v>
+      </c>
+      <c r="G154" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>120</v>
+      </c>
+      <c r="F155" s="2">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>120</v>
+      </c>
+      <c r="F156" s="2">
+        <v>7</v>
+      </c>
+      <c r="G156" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" t="s">
         <v>124</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C158" t="s">
         <v>119</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D158" t="s">
         <v>121</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E158" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
+++ b/Testdata/Non_Oncology/DataFiles/ImportPublications/ImportPublicationsPage_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\DataFiles\ImportPublications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9076579F-AC4D-4DED-9827-051A7688EA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF74D28-C6FB-401F-AB51-83A481BE9917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,9 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="F60" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
         <v>43</v>
@@ -2278,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="F136" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
         <v>43</v>
